--- a/Copy of IS Observation Form 2024 (Responses).xlsx
+++ b/Copy of IS Observation Form 2024 (Responses).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nabtang\Documents\GitHub\IS-Observation-Form-2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDCBCDD5-930B-45B2-AD3A-A8E5CD7CA52E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8BE3379-6509-4344-A690-9BECC86274C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,18 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Form Responses 1'!$E$1:$E$441</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -98,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4343" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4344" uniqueCount="454">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1474,6 +1485,9 @@
   <si>
     <t>21255@ps.ac.th</t>
   </si>
+  <si>
+    <t>Sigma Red</t>
+  </si>
 </sst>
 </file>
 
@@ -1820,11 +1834,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AU441"/>
+  <dimension ref="A1:AW441"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AM1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="AU342" sqref="AU342"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1853,7 +1867,7 @@
     <col min="47" max="53" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1995,8 +2009,11 @@
       <c r="AU1" s="9" t="s">
         <v>45</v>
       </c>
+      <c r="AW1" t="s">
+        <v>453</v>
+      </c>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A2" s="10">
         <v>45509.701037893523</v>
       </c>
@@ -2136,8 +2153,12 @@
       <c r="AU2" s="11" t="s">
         <v>57</v>
       </c>
+      <c r="AW2">
+        <f>SUM(G2:Q2)</f>
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A3" s="10">
         <v>45509.70180761574</v>
       </c>
@@ -2277,8 +2298,12 @@
       <c r="AU3" s="11" t="s">
         <v>63</v>
       </c>
+      <c r="AW3">
+        <f>SUM(G3:Q3)</f>
+        <v>21</v>
+      </c>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
         <v>45510.305194814813</v>
       </c>
@@ -2418,8 +2443,12 @@
       <c r="AU4" s="11" t="s">
         <v>77</v>
       </c>
+      <c r="AW4">
+        <f t="shared" ref="AW4:AW67" si="0">SUM(G4:Q4)</f>
+        <v>31</v>
+      </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>45510.305908900467</v>
       </c>
@@ -2559,8 +2588,12 @@
       <c r="AU5" s="11" t="s">
         <v>79</v>
       </c>
+      <c r="AW5">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
         <v>45510.450860081022</v>
       </c>
@@ -2700,8 +2733,12 @@
       <c r="AU6" s="11" t="s">
         <v>80</v>
       </c>
+      <c r="AW6">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
         <v>45533.454514236109</v>
       </c>
@@ -2841,8 +2878,12 @@
       <c r="AU7" s="11" t="s">
         <v>87</v>
       </c>
+      <c r="AW7">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
         <v>45534.598930266206</v>
       </c>
@@ -2982,8 +3023,12 @@
       <c r="AU8" s="11" t="s">
         <v>89</v>
       </c>
+      <c r="AW8">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
         <v>45510.304203993059</v>
       </c>
@@ -3123,8 +3168,12 @@
       <c r="AU9" s="11" t="s">
         <v>91</v>
       </c>
+      <c r="AW9">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
         <v>45510.306761192129</v>
       </c>
@@ -3264,8 +3313,12 @@
       <c r="AU10" s="11" t="s">
         <v>92</v>
       </c>
+      <c r="AW10">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A11" s="10">
         <v>45517.312436354172</v>
       </c>
@@ -3405,8 +3458,12 @@
       <c r="AU11" s="11" t="s">
         <v>94</v>
       </c>
+      <c r="AW11">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
         <v>45527.50237717593</v>
       </c>
@@ -3546,8 +3603,12 @@
       <c r="AU12" s="11" t="s">
         <v>116</v>
       </c>
+      <c r="AW12">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
         <v>45527.505888935186</v>
       </c>
@@ -3687,8 +3748,12 @@
       <c r="AU13" s="11" t="s">
         <v>119</v>
       </c>
+      <c r="AW13">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A14" s="10">
         <v>45517.552074386578</v>
       </c>
@@ -3828,8 +3893,12 @@
       <c r="AU14" s="11" t="s">
         <v>129</v>
       </c>
+      <c r="AW14">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A15" s="10">
         <v>45517.554953865736</v>
       </c>
@@ -3969,8 +4038,12 @@
       <c r="AU15" s="11" t="s">
         <v>132</v>
       </c>
+      <c r="AW15">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A16" s="10">
         <v>45517.556153761572</v>
       </c>
@@ -4110,8 +4183,12 @@
       <c r="AU16" s="11" t="s">
         <v>133</v>
       </c>
+      <c r="AW16">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
     </row>
-    <row r="17" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A17" s="10">
         <v>45527.50599096065</v>
       </c>
@@ -4251,8 +4328,12 @@
       <c r="AU17" s="11" t="s">
         <v>136</v>
       </c>
+      <c r="AW17">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
     </row>
-    <row r="18" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A18" s="10">
         <v>45537.348247210648</v>
       </c>
@@ -4392,8 +4473,12 @@
       <c r="AU18" s="11" t="s">
         <v>140</v>
       </c>
+      <c r="AW18">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
     </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A19" s="10">
         <v>45537.34997362268</v>
       </c>
@@ -4533,8 +4618,12 @@
       <c r="AU19" s="11" t="s">
         <v>142</v>
       </c>
+      <c r="AW19">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
     </row>
-    <row r="20" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A20" s="10">
         <v>45517.554725821756</v>
       </c>
@@ -4674,8 +4763,12 @@
       <c r="AU20" s="11" t="s">
         <v>143</v>
       </c>
+      <c r="AW20">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
     </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A21" s="10">
         <v>45517.555892534721</v>
       </c>
@@ -4815,8 +4908,12 @@
       <c r="AU21" s="11" t="s">
         <v>144</v>
       </c>
+      <c r="AW21">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
     </row>
-    <row r="22" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A22" s="10">
         <v>45517.55537563657</v>
       </c>
@@ -4956,8 +5053,12 @@
       <c r="AU22" s="11" t="s">
         <v>145</v>
       </c>
+      <c r="AW22">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
     </row>
-    <row r="23" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A23" s="10">
         <v>45517.821303784724</v>
       </c>
@@ -5097,8 +5198,12 @@
       <c r="AU23" s="11" t="s">
         <v>146</v>
       </c>
+      <c r="AW23">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
     </row>
-    <row r="24" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A24" s="10">
         <v>45527.488619918979</v>
       </c>
@@ -5238,8 +5343,12 @@
       <c r="AU24" s="11" t="s">
         <v>147</v>
       </c>
+      <c r="AW24">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
     </row>
-    <row r="25" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A25" s="10">
         <v>45517.551749062499</v>
       </c>
@@ -5379,8 +5488,12 @@
       <c r="AU25" s="11" t="s">
         <v>156</v>
       </c>
+      <c r="AW25">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
     </row>
-    <row r="26" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A26" s="10">
         <v>45527.567023275464</v>
       </c>
@@ -5520,8 +5633,12 @@
       <c r="AU26" s="11" t="s">
         <v>162</v>
       </c>
+      <c r="AW26">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
     </row>
-    <row r="27" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A27" s="10">
         <v>45528.654501875004</v>
       </c>
@@ -5661,8 +5778,12 @@
       <c r="AU27" s="11" t="s">
         <v>164</v>
       </c>
+      <c r="AW27">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
     </row>
-    <row r="28" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A28" s="10">
         <v>45511.367143703705</v>
       </c>
@@ -5802,8 +5923,12 @@
       <c r="AU28" s="11" t="s">
         <v>171</v>
       </c>
+      <c r="AW28">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
     </row>
-    <row r="29" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A29" s="10">
         <v>45517.555438159718</v>
       </c>
@@ -5943,8 +6068,12 @@
       <c r="AU29" s="11" t="s">
         <v>178</v>
       </c>
+      <c r="AW29">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
     </row>
-    <row r="30" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A30" s="10">
         <v>45527.490091400468</v>
       </c>
@@ -6084,8 +6213,12 @@
       <c r="AU30" s="11" t="s">
         <v>180</v>
       </c>
+      <c r="AW30">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
     </row>
-    <row r="31" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A31" s="10">
         <v>45527.490132743056</v>
       </c>
@@ -6225,8 +6358,12 @@
       <c r="AU31" s="11" t="s">
         <v>182</v>
       </c>
+      <c r="AW31">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
     </row>
-    <row r="32" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A32" s="10">
         <v>45527.493735104166</v>
       </c>
@@ -6366,8 +6503,12 @@
       <c r="AU32" s="11" t="s">
         <v>183</v>
       </c>
+      <c r="AW32">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
     </row>
-    <row r="33" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A33" s="10">
         <v>45527.501794317126</v>
       </c>
@@ -6507,8 +6648,12 @@
       <c r="AU33" s="11" t="s">
         <v>185</v>
       </c>
+      <c r="AW33">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
     </row>
-    <row r="34" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A34" s="10">
         <v>45527.562899780096</v>
       </c>
@@ -6648,8 +6793,12 @@
       <c r="AU34" s="11" t="s">
         <v>186</v>
       </c>
+      <c r="AW34">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
     </row>
-    <row r="35" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A35" s="10">
         <v>45527.563307152777</v>
       </c>
@@ -6789,8 +6938,12 @@
       <c r="AU35" s="11" t="s">
         <v>187</v>
       </c>
+      <c r="AW35">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
     </row>
-    <row r="36" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A36" s="10">
         <v>45527.563486041661</v>
       </c>
@@ -6930,8 +7083,12 @@
       <c r="AU36" s="11" t="s">
         <v>189</v>
       </c>
+      <c r="AW36">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
     </row>
-    <row r="37" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A37" s="10">
         <v>45517.55057796296</v>
       </c>
@@ -7071,8 +7228,12 @@
       <c r="AU37" s="11" t="s">
         <v>196</v>
       </c>
+      <c r="AW37">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
     </row>
-    <row r="38" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A38" s="10">
         <v>45533.336324548611</v>
       </c>
@@ -7212,8 +7373,12 @@
       <c r="AU38" s="11" t="s">
         <v>200</v>
       </c>
+      <c r="AW38">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
     </row>
-    <row r="39" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A39" s="10">
         <v>45533.336635856482</v>
       </c>
@@ -7353,8 +7518,12 @@
       <c r="AU39" s="11" t="s">
         <v>201</v>
       </c>
+      <c r="AW39">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
     </row>
-    <row r="40" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A40" s="10">
         <v>45533.336680335648</v>
       </c>
@@ -7494,8 +7663,12 @@
       <c r="AU40" s="11" t="s">
         <v>202</v>
       </c>
+      <c r="AW40">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
     </row>
-    <row r="41" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A41" s="10">
         <v>45533.336773310184</v>
       </c>
@@ -7635,8 +7808,12 @@
       <c r="AU41" s="11" t="s">
         <v>204</v>
       </c>
+      <c r="AW41">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
     </row>
-    <row r="42" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A42" s="10">
         <v>45533.337946608794</v>
       </c>
@@ -7776,8 +7953,12 @@
       <c r="AU42" s="11" t="s">
         <v>207</v>
       </c>
+      <c r="AW42">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
     </row>
-    <row r="43" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A43" s="10">
         <v>45517.548257256945</v>
       </c>
@@ -7917,8 +8098,12 @@
       <c r="AU43" s="11" t="s">
         <v>213</v>
       </c>
+      <c r="AW43">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
     </row>
-    <row r="44" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A44" s="10">
         <v>45527.486554189818</v>
       </c>
@@ -8058,8 +8243,12 @@
       <c r="AU44" s="11" t="s">
         <v>216</v>
       </c>
+      <c r="AW44">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
     </row>
-    <row r="45" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A45" s="10">
         <v>45527.487414305557</v>
       </c>
@@ -8199,8 +8388,12 @@
       <c r="AU45" s="11" t="s">
         <v>221</v>
       </c>
+      <c r="AW45">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
     </row>
-    <row r="46" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A46" s="10">
         <v>45527.487723981481</v>
       </c>
@@ -8340,8 +8533,12 @@
       <c r="AU46" s="11" t="s">
         <v>222</v>
       </c>
+      <c r="AW46">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
     </row>
-    <row r="47" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A47" s="10">
         <v>45527.488838668985</v>
       </c>
@@ -8481,8 +8678,12 @@
       <c r="AU47" s="11" t="s">
         <v>228</v>
       </c>
+      <c r="AW47">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
     </row>
-    <row r="48" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A48" s="10">
         <v>45527.489154803239</v>
       </c>
@@ -8622,8 +8823,12 @@
       <c r="AU48" s="11" t="s">
         <v>229</v>
       </c>
+      <c r="AW48">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
     </row>
-    <row r="49" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A49" s="10">
         <v>45527.489314768522</v>
       </c>
@@ -8763,8 +8968,12 @@
       <c r="AU49" s="11" t="s">
         <v>230</v>
       </c>
+      <c r="AW49">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
     </row>
-    <row r="50" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A50" s="10">
         <v>45527.49011875</v>
       </c>
@@ -8904,8 +9113,12 @@
       <c r="AU50" s="11" t="s">
         <v>231</v>
       </c>
+      <c r="AW50">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
     </row>
-    <row r="51" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A51" s="10">
         <v>45508.518026527774</v>
       </c>
@@ -9045,8 +9258,12 @@
       <c r="AU51" s="11" t="s">
         <v>237</v>
       </c>
+      <c r="AW51">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
     </row>
-    <row r="52" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A52" s="10">
         <v>45517.745033645835</v>
       </c>
@@ -9186,8 +9403,12 @@
       <c r="AU52" s="11" t="s">
         <v>241</v>
       </c>
+      <c r="AW52">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
     </row>
-    <row r="53" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A53" s="10">
         <v>45533.763262800931</v>
       </c>
@@ -9327,8 +9548,12 @@
       <c r="AU53" s="11" t="s">
         <v>250</v>
       </c>
+      <c r="AW53">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
     </row>
-    <row r="54" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A54" s="10">
         <v>45527.555983726852</v>
       </c>
@@ -9468,8 +9693,12 @@
       <c r="AU54" s="11" t="s">
         <v>256</v>
       </c>
+      <c r="AW54">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
     </row>
-    <row r="55" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A55" s="10">
         <v>45527.558422326387</v>
       </c>
@@ -9609,8 +9838,12 @@
       <c r="AU55" s="11" t="s">
         <v>258</v>
       </c>
+      <c r="AW55">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
     </row>
-    <row r="56" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A56" s="10">
         <v>45533.346102037038</v>
       </c>
@@ -9750,8 +9983,12 @@
       <c r="AU56" s="11" t="s">
         <v>260</v>
       </c>
+      <c r="AW56">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
     </row>
-    <row r="57" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A57" s="10">
         <v>45510.302528819448</v>
       </c>
@@ -9891,8 +10128,12 @@
       <c r="AU57" s="11" t="s">
         <v>262</v>
       </c>
+      <c r="AW57">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
     </row>
-    <row r="58" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A58" s="10">
         <v>45513.791579062497</v>
       </c>
@@ -10032,8 +10273,12 @@
       <c r="AU58" s="11" t="s">
         <v>263</v>
       </c>
+      <c r="AW58">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
     </row>
-    <row r="59" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A59" s="10">
         <v>45527.50915085648</v>
       </c>
@@ -10173,8 +10418,12 @@
       <c r="AU59" s="11" t="s">
         <v>264</v>
       </c>
+      <c r="AW59">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
     </row>
-    <row r="60" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A60" s="10">
         <v>45527.778415312496</v>
       </c>
@@ -10314,8 +10563,12 @@
       <c r="AU60" s="11" t="s">
         <v>265</v>
       </c>
+      <c r="AW60">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
     </row>
-    <row r="61" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A61" s="10">
         <v>45533.347291805556</v>
       </c>
@@ -10455,8 +10708,12 @@
       <c r="AU61" s="11" t="s">
         <v>275</v>
       </c>
+      <c r="AW61">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
     </row>
-    <row r="62" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A62" s="10">
         <v>45527.523219791663</v>
       </c>
@@ -10596,8 +10853,12 @@
       <c r="AU62" s="11" t="s">
         <v>281</v>
       </c>
+      <c r="AW62">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
     </row>
-    <row r="63" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A63" s="10">
         <v>45533.341231585648</v>
       </c>
@@ -10737,8 +10998,12 @@
       <c r="AU63" s="11" t="s">
         <v>284</v>
       </c>
+      <c r="AW63">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
     </row>
-    <row r="64" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A64" s="10">
         <v>45533.343040833337</v>
       </c>
@@ -10878,8 +11143,12 @@
       <c r="AU64" s="11" t="s">
         <v>288</v>
       </c>
+      <c r="AW64">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
     </row>
-    <row r="65" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A65" s="10">
         <v>45533.346510092597</v>
       </c>
@@ -11019,8 +11288,12 @@
       <c r="AU65" s="11" t="s">
         <v>291</v>
       </c>
+      <c r="AW65">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
     </row>
-    <row r="66" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A66" s="10">
         <v>45510.298384178241</v>
       </c>
@@ -11160,8 +11433,12 @@
       <c r="AU66" s="11" t="s">
         <v>292</v>
       </c>
+      <c r="AW66">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
     </row>
-    <row r="67" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A67" s="10">
         <v>45527.568525486116</v>
       </c>
@@ -11301,8 +11578,12 @@
       <c r="AU67" s="11" t="s">
         <v>295</v>
       </c>
+      <c r="AW67">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
     </row>
-    <row r="68" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A68" s="10">
         <v>45527.554662106486</v>
       </c>
@@ -11442,8 +11723,12 @@
       <c r="AU68" s="11" t="s">
         <v>300</v>
       </c>
+      <c r="AW68">
+        <f t="shared" ref="AW68:AW131" si="1">SUM(G68:Q68)</f>
+        <v>31</v>
+      </c>
     </row>
-    <row r="69" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A69" s="10">
         <v>45527.547734328706</v>
       </c>
@@ -11583,8 +11868,12 @@
       <c r="AU69" s="11" t="s">
         <v>301</v>
       </c>
+      <c r="AW69">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
     </row>
-    <row r="70" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A70" s="10">
         <v>45527.547771041667</v>
       </c>
@@ -11724,8 +12013,12 @@
       <c r="AU70" s="11" t="s">
         <v>302</v>
       </c>
+      <c r="AW70">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
     </row>
-    <row r="71" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A71" s="10">
         <v>45527.54781877315</v>
       </c>
@@ -11865,8 +12158,12 @@
       <c r="AU71" s="11" t="s">
         <v>303</v>
       </c>
+      <c r="AW71">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
     </row>
-    <row r="72" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A72" s="10">
         <v>45510.298182372688</v>
       </c>
@@ -12006,8 +12303,12 @@
       <c r="AU72" s="11" t="s">
         <v>305</v>
       </c>
+      <c r="AW72">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
     </row>
-    <row r="73" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A73" s="10">
         <v>45507.545303078703</v>
       </c>
@@ -12149,8 +12450,12 @@
       <c r="AU73" s="11" t="s">
         <v>311</v>
       </c>
+      <c r="AW73">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
     </row>
-    <row r="74" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A74" s="10">
         <v>45507.545380034717</v>
       </c>
@@ -12292,8 +12597,12 @@
       <c r="AU74" s="11" t="s">
         <v>312</v>
       </c>
+      <c r="AW74">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
     </row>
-    <row r="75" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A75" s="10">
         <v>45507.573716840277</v>
       </c>
@@ -12435,8 +12744,12 @@
       <c r="AU75" s="11" t="s">
         <v>314</v>
       </c>
+      <c r="AW75">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
     </row>
-    <row r="76" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A76" s="10">
         <v>45507.582804375001</v>
       </c>
@@ -12578,8 +12891,12 @@
       <c r="AU76" s="11" t="s">
         <v>316</v>
       </c>
+      <c r="AW76">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
     </row>
-    <row r="77" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A77" s="10">
         <v>45508.261783553244</v>
       </c>
@@ -12719,8 +13036,12 @@
       <c r="AU77" s="11" t="s">
         <v>317</v>
       </c>
+      <c r="AW77">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
     </row>
-    <row r="78" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A78" s="10">
         <v>45508.267405694445</v>
       </c>
@@ -12860,8 +13181,12 @@
       <c r="AU78" s="11" t="s">
         <v>318</v>
       </c>
+      <c r="AW78">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
     </row>
-    <row r="79" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A79" s="10">
         <v>45508.308609201384</v>
       </c>
@@ -13001,8 +13326,12 @@
       <c r="AU79" s="11" t="s">
         <v>319</v>
       </c>
+      <c r="AW79">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
     </row>
-    <row r="80" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A80" s="10">
         <v>45508.649000925929</v>
       </c>
@@ -13142,8 +13471,12 @@
       <c r="AU80" s="11" t="s">
         <v>320</v>
       </c>
+      <c r="AW80">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
     </row>
-    <row r="81" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A81" s="10">
         <v>45511.339841990739</v>
       </c>
@@ -13283,8 +13616,12 @@
       <c r="AU81" s="11" t="s">
         <v>323</v>
       </c>
+      <c r="AW81">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
     </row>
-    <row r="82" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A82" s="10">
         <v>45509.343424837964</v>
       </c>
@@ -13424,8 +13761,12 @@
       <c r="AU82" s="11" t="s">
         <v>330</v>
       </c>
+      <c r="AW82">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
     </row>
-    <row r="83" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A83" s="10">
         <v>45510.335351030095</v>
       </c>
@@ -13565,8 +13906,12 @@
       <c r="AU83" s="11" t="s">
         <v>332</v>
       </c>
+      <c r="AW83">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
     </row>
-    <row r="84" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A84" s="10">
         <v>45508.273208495375</v>
       </c>
@@ -13706,8 +14051,12 @@
       <c r="AU84" s="11" t="s">
         <v>333</v>
       </c>
+      <c r="AW84">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
     </row>
-    <row r="85" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A85" s="10">
         <v>45508.273982905092</v>
       </c>
@@ -13847,8 +14196,12 @@
       <c r="AU85" s="11" t="s">
         <v>335</v>
       </c>
+      <c r="AW85">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
     </row>
-    <row r="86" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A86" s="10">
         <v>45508.315119756946</v>
       </c>
@@ -13988,8 +14341,12 @@
       <c r="AU86" s="11" t="s">
         <v>336</v>
       </c>
+      <c r="AW86">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
     </row>
-    <row r="87" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A87" s="10">
         <v>45508.580843379634</v>
       </c>
@@ -14129,8 +14486,12 @@
       <c r="AU87" s="11" t="s">
         <v>337</v>
       </c>
+      <c r="AW87">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
     </row>
-    <row r="88" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A88" s="10">
         <v>45510.305282719906</v>
       </c>
@@ -14270,8 +14631,12 @@
       <c r="AU88" s="11" t="s">
         <v>343</v>
       </c>
+      <c r="AW88">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
     </row>
-    <row r="89" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A89" s="10">
         <v>45511.335691365741</v>
       </c>
@@ -14411,8 +14776,12 @@
       <c r="AU89" s="11" t="s">
         <v>346</v>
       </c>
+      <c r="AW89">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
     </row>
-    <row r="90" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A90" s="10">
         <v>45511.455924305556</v>
       </c>
@@ -14552,8 +14921,12 @@
       <c r="AU90" s="11" t="s">
         <v>349</v>
       </c>
+      <c r="AW90">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
     </row>
-    <row r="91" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A91" s="10">
         <v>45507.733279062501</v>
       </c>
@@ -14695,8 +15068,12 @@
       <c r="AU91" s="11" t="s">
         <v>350</v>
       </c>
+      <c r="AW91">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
     </row>
-    <row r="92" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A92" s="10">
         <v>45508.256419189813</v>
       </c>
@@ -14838,8 +15215,12 @@
       <c r="AU92" s="11" t="s">
         <v>351</v>
       </c>
+      <c r="AW92">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
     </row>
-    <row r="93" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A93" s="10">
         <v>45512.493399895829</v>
       </c>
@@ -14979,8 +15360,12 @@
       <c r="AU93" s="11" t="s">
         <v>357</v>
       </c>
+      <c r="AW93">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
     </row>
-    <row r="94" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A94" s="10">
         <v>45508.27905931713</v>
       </c>
@@ -15120,8 +15505,12 @@
       <c r="AU94" s="11" t="s">
         <v>358</v>
       </c>
+      <c r="AW94">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
     </row>
-    <row r="95" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A95" s="10">
         <v>45508.319541712961</v>
       </c>
@@ -15261,8 +15650,12 @@
       <c r="AU95" s="11" t="s">
         <v>359</v>
       </c>
+      <c r="AW95">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
     </row>
-    <row r="96" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A96" s="10">
         <v>45508.320044745371</v>
       </c>
@@ -15402,8 +15795,12 @@
       <c r="AU96" s="11" t="s">
         <v>360</v>
       </c>
+      <c r="AW96">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
     </row>
-    <row r="97" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A97" s="10">
         <v>45508.323908391205</v>
       </c>
@@ -15543,8 +15940,12 @@
       <c r="AU97" s="11" t="s">
         <v>361</v>
       </c>
+      <c r="AW97">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
     </row>
-    <row r="98" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A98" s="10">
         <v>45508.32642380787</v>
       </c>
@@ -15684,8 +16085,12 @@
       <c r="AU98" s="11" t="s">
         <v>362</v>
       </c>
+      <c r="AW98">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
     </row>
-    <row r="99" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A99" s="10">
         <v>45508.507688784724</v>
       </c>
@@ -15825,8 +16230,12 @@
       <c r="AU99" s="11" t="s">
         <v>364</v>
       </c>
+      <c r="AW99">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
     </row>
-    <row r="100" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A100" s="10">
         <v>45510.328516863425</v>
       </c>
@@ -15966,8 +16375,12 @@
       <c r="AU100" s="11" t="s">
         <v>365</v>
       </c>
+      <c r="AW100">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
     </row>
-    <row r="101" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A101" s="10">
         <v>45511.335108750005</v>
       </c>
@@ -16107,8 +16520,12 @@
       <c r="AU101" s="11" t="s">
         <v>367</v>
       </c>
+      <c r="AW101">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
     </row>
-    <row r="102" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A102" s="10">
         <v>45512.333114328707</v>
       </c>
@@ -16248,8 +16665,12 @@
       <c r="AU102" s="11" t="s">
         <v>372</v>
       </c>
+      <c r="AW102">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
     </row>
-    <row r="103" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A103" s="10">
         <v>45512.416400497685</v>
       </c>
@@ -16389,8 +16810,12 @@
       <c r="AU103" s="11" t="s">
         <v>375</v>
       </c>
+      <c r="AW103">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
     </row>
-    <row r="104" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A104" s="10">
         <v>45533.399322581019</v>
       </c>
@@ -16530,8 +16955,12 @@
       <c r="AU104" s="11" t="s">
         <v>377</v>
       </c>
+      <c r="AW104">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
     </row>
-    <row r="105" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A105" s="10">
         <v>45508.268380219903</v>
       </c>
@@ -16671,8 +17100,12 @@
       <c r="AU105" s="11" t="s">
         <v>379</v>
       </c>
+      <c r="AW105">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
     </row>
-    <row r="106" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A106" s="10">
         <v>45508.356067094908</v>
       </c>
@@ -16812,8 +17245,12 @@
       <c r="AU106" s="11" t="s">
         <v>380</v>
       </c>
+      <c r="AW106">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
     </row>
-    <row r="107" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A107" s="10">
         <v>45508.530312280098</v>
       </c>
@@ -16953,8 +17390,12 @@
       <c r="AU107" s="11" t="s">
         <v>381</v>
       </c>
+      <c r="AW107">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
     </row>
-    <row r="108" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A108" s="10">
         <v>45510.831899143523</v>
       </c>
@@ -17094,8 +17535,12 @@
       <c r="AU108" s="11" t="s">
         <v>383</v>
       </c>
+      <c r="AW108">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
     </row>
-    <row r="109" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A109" s="10">
         <v>45512.323136539351</v>
       </c>
@@ -17235,8 +17680,12 @@
       <c r="AU109" s="11" t="s">
         <v>384</v>
       </c>
+      <c r="AW109">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
     </row>
-    <row r="110" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A110" s="10">
         <v>45512.351598148147</v>
       </c>
@@ -17376,8 +17825,12 @@
       <c r="AU110" s="11" t="s">
         <v>385</v>
       </c>
+      <c r="AW110">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
     </row>
-    <row r="111" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A111" s="10">
         <v>45508.317757395838</v>
       </c>
@@ -17517,8 +17970,12 @@
       <c r="AU111" s="11" t="s">
         <v>391</v>
       </c>
+      <c r="AW111">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
     </row>
-    <row r="112" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A112" s="10">
         <v>45508.321220659724</v>
       </c>
@@ -17658,8 +18115,12 @@
       <c r="AU112" s="11" t="s">
         <v>392</v>
       </c>
+      <c r="AW112">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
     </row>
-    <row r="113" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A113" s="10">
         <v>45508.460615520831</v>
       </c>
@@ -17799,8 +18260,12 @@
       <c r="AU113" s="11" t="s">
         <v>393</v>
       </c>
+      <c r="AW113">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
     </row>
-    <row r="114" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A114" s="10">
         <v>45509.509925046295</v>
       </c>
@@ -17940,8 +18405,12 @@
       <c r="AU114" s="11" t="s">
         <v>394</v>
       </c>
+      <c r="AW114">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
     </row>
-    <row r="115" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A115" s="10">
         <v>45511.334299837967</v>
       </c>
@@ -18081,8 +18550,12 @@
       <c r="AU115" s="11" t="s">
         <v>395</v>
       </c>
+      <c r="AW115">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
     </row>
-    <row r="116" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A116" s="10">
         <v>45511.334822337958</v>
       </c>
@@ -18222,8 +18695,12 @@
       <c r="AU116" s="11" t="s">
         <v>396</v>
       </c>
+      <c r="AW116">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
     </row>
-    <row r="117" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A117" s="10">
         <v>45508.321204143518</v>
       </c>
@@ -18363,8 +18840,12 @@
       <c r="AU117" s="11" t="s">
         <v>400</v>
       </c>
+      <c r="AW117">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
     </row>
-    <row r="118" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A118" s="10">
         <v>45508.326651203708</v>
       </c>
@@ -18504,8 +18985,12 @@
       <c r="AU118" s="11" t="s">
         <v>401</v>
       </c>
+      <c r="AW118">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
     </row>
-    <row r="119" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A119" s="10">
         <v>45508.32762030093</v>
       </c>
@@ -18645,8 +19130,12 @@
       <c r="AU119" s="11" t="s">
         <v>403</v>
       </c>
+      <c r="AW119">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
     </row>
-    <row r="120" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A120" s="10">
         <v>45508.566238344909</v>
       </c>
@@ -18786,8 +19275,12 @@
       <c r="AU120" s="11" t="s">
         <v>404</v>
       </c>
+      <c r="AW120">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
     </row>
-    <row r="121" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A121" s="10">
         <v>45508.274316689814</v>
       </c>
@@ -18927,8 +19420,12 @@
       <c r="AU121" s="11" t="s">
         <v>409</v>
       </c>
+      <c r="AW121">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
     </row>
-    <row r="122" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A122" s="10">
         <v>45508.313480682875</v>
       </c>
@@ -19068,8 +19565,12 @@
       <c r="AU122" s="11" t="s">
         <v>410</v>
       </c>
+      <c r="AW122">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
     </row>
-    <row r="123" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A123" s="10">
         <v>45508.318576956022</v>
       </c>
@@ -19209,8 +19710,12 @@
       <c r="AU123" s="11" t="s">
         <v>411</v>
       </c>
+      <c r="AW123">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
     </row>
-    <row r="124" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A124" s="10">
         <v>45508.319183125001</v>
       </c>
@@ -19350,8 +19855,12 @@
       <c r="AU124" s="11" t="s">
         <v>412</v>
       </c>
+      <c r="AW124">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
     </row>
-    <row r="125" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A125" s="10">
         <v>45508.341540335648</v>
       </c>
@@ -19491,8 +20000,12 @@
       <c r="AU125" s="11" t="s">
         <v>413</v>
       </c>
+      <c r="AW125">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
     </row>
-    <row r="126" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A126" s="10">
         <v>45508.579625659724</v>
       </c>
@@ -19632,8 +20145,12 @@
       <c r="AU126" s="11" t="s">
         <v>414</v>
       </c>
+      <c r="AW126">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
     </row>
-    <row r="127" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A127" s="10">
         <v>45508.580058368054</v>
       </c>
@@ -19773,8 +20290,12 @@
       <c r="AU127" s="11" t="s">
         <v>415</v>
       </c>
+      <c r="AW127">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
     </row>
-    <row r="128" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A128" s="10">
         <v>45511.696536041665</v>
       </c>
@@ -19914,8 +20435,12 @@
       <c r="AU128" s="11" t="s">
         <v>416</v>
       </c>
+      <c r="AW128">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
     </row>
-    <row r="129" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A129" s="10">
         <v>45508.317449930561</v>
       </c>
@@ -20055,8 +20580,12 @@
       <c r="AU129" s="11" t="s">
         <v>422</v>
       </c>
+      <c r="AW129">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
     </row>
-    <row r="130" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A130" s="10">
         <v>45508.324900810185</v>
       </c>
@@ -20196,8 +20725,12 @@
       <c r="AU130" s="11" t="s">
         <v>423</v>
       </c>
+      <c r="AW130">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
     </row>
-    <row r="131" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A131" s="10">
         <v>45510.29671524305</v>
       </c>
@@ -20337,8 +20870,12 @@
       <c r="AU131" s="11" t="s">
         <v>424</v>
       </c>
+      <c r="AW131">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
     </row>
-    <row r="132" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A132" s="10">
         <v>45510.351478599536</v>
       </c>
@@ -20478,8 +21015,12 @@
       <c r="AU132" s="11" t="s">
         <v>425</v>
       </c>
+      <c r="AW132">
+        <f t="shared" ref="AW132:AW195" si="2">SUM(G132:Q132)</f>
+        <v>12</v>
+      </c>
     </row>
-    <row r="133" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A133" s="10">
         <v>45508.281388344913</v>
       </c>
@@ -20619,8 +21160,12 @@
       <c r="AU133" s="11" t="s">
         <v>438</v>
       </c>
+      <c r="AW133">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
     </row>
-    <row r="134" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A134" s="10">
         <v>45508.580698483798</v>
       </c>
@@ -20760,8 +21305,12 @@
       <c r="AU134" s="11" t="s">
         <v>439</v>
       </c>
+      <c r="AW134">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
     </row>
-    <row r="135" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A135" s="10">
         <v>45508.272878113421</v>
       </c>
@@ -20901,8 +21450,12 @@
       <c r="AU135" s="11" t="s">
         <v>441</v>
       </c>
+      <c r="AW135">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
     </row>
-    <row r="136" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A136" s="10">
         <v>45508.27796871528</v>
       </c>
@@ -21042,8 +21595,12 @@
       <c r="AU136" s="11" t="s">
         <v>442</v>
       </c>
+      <c r="AW136">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
     </row>
-    <row r="137" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A137" s="10">
         <v>45508.31701053241</v>
       </c>
@@ -21183,8 +21740,12 @@
       <c r="AU137" s="11" t="s">
         <v>443</v>
       </c>
+      <c r="AW137">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
     </row>
-    <row r="138" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A138" s="10">
         <v>45508.317276608796</v>
       </c>
@@ -21324,8 +21885,12 @@
       <c r="AU138" s="11" t="s">
         <v>444</v>
       </c>
+      <c r="AW138">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
     </row>
-    <row r="139" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A139" s="10">
         <v>45508.31775018519</v>
       </c>
@@ -21465,8 +22030,12 @@
       <c r="AU139" s="11" t="s">
         <v>445</v>
       </c>
+      <c r="AW139">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
     </row>
-    <row r="140" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A140" s="10">
         <v>45510.680023564812</v>
       </c>
@@ -21606,8 +22175,12 @@
       <c r="AU140" s="11" t="s">
         <v>448</v>
       </c>
+      <c r="AW140">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
     </row>
-    <row r="141" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A141" s="10">
         <v>45537.493738344907</v>
       </c>
@@ -21747,8 +22320,12 @@
       <c r="AU141" s="11" t="s">
         <v>450</v>
       </c>
+      <c r="AW141">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
     </row>
-    <row r="142" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A142" s="10">
         <v>45537.494367245366</v>
       </c>
@@ -21888,8 +22465,12 @@
       <c r="AU142" s="11" t="s">
         <v>451</v>
       </c>
+      <c r="AW142">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
     </row>
-    <row r="143" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A143" s="10">
         <v>45510.295152615741</v>
       </c>
@@ -22029,8 +22610,12 @@
       <c r="AU143" s="11" t="s">
         <v>66</v>
       </c>
+      <c r="AW143">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
     </row>
-    <row r="144" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A144" s="10">
         <v>45510.295286157409</v>
       </c>
@@ -22170,8 +22755,12 @@
       <c r="AU144" s="11" t="s">
         <v>68</v>
       </c>
+      <c r="AW144">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
     </row>
-    <row r="145" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A145" s="10">
         <v>45510.296494560185</v>
       </c>
@@ -22311,8 +22900,12 @@
       <c r="AU145" s="11" t="s">
         <v>71</v>
       </c>
+      <c r="AW145">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
     </row>
-    <row r="146" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A146" s="10">
         <v>45510.298305810182</v>
       </c>
@@ -22452,8 +23045,12 @@
       <c r="AU146" s="11" t="s">
         <v>72</v>
       </c>
+      <c r="AW146">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
     </row>
-    <row r="147" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A147" s="10">
         <v>45510.299961990742</v>
       </c>
@@ -22593,8 +23190,12 @@
       <c r="AU147" s="11" t="s">
         <v>74</v>
       </c>
+      <c r="AW147">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
     </row>
-    <row r="148" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A148" s="10">
         <v>45512.335438576389</v>
       </c>
@@ -22734,8 +23335,12 @@
       <c r="AU148" s="11" t="s">
         <v>82</v>
       </c>
+      <c r="AW148">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
     </row>
-    <row r="149" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A149" s="10">
         <v>45527.560776909726</v>
       </c>
@@ -22875,8 +23480,12 @@
       <c r="AU149" s="11" t="s">
         <v>85</v>
       </c>
+      <c r="AW149">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
     </row>
-    <row r="150" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A150" s="10">
         <v>45527.491834965273</v>
       </c>
@@ -23016,8 +23625,12 @@
       <c r="AU150" s="11" t="s">
         <v>95</v>
       </c>
+      <c r="AW150">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
     </row>
-    <row r="151" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A151" s="10">
         <v>45527.554888148152</v>
       </c>
@@ -23157,8 +23770,12 @@
       <c r="AU151" s="11" t="s">
         <v>97</v>
       </c>
+      <c r="AW151">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
     </row>
-    <row r="152" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A152" s="10">
         <v>45533.335085601851</v>
       </c>
@@ -23298,8 +23915,12 @@
       <c r="AU152" s="11" t="s">
         <v>99</v>
       </c>
+      <c r="AW152">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
     </row>
-    <row r="153" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A153" s="10">
         <v>45533.336794363422</v>
       </c>
@@ -23439,8 +24060,12 @@
       <c r="AU153" s="11" t="s">
         <v>100</v>
       </c>
+      <c r="AW153">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
     </row>
-    <row r="154" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A154" s="10">
         <v>45533.339490682869</v>
       </c>
@@ -23580,8 +24205,12 @@
       <c r="AU154" s="11" t="s">
         <v>101</v>
       </c>
+      <c r="AW154">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
     </row>
-    <row r="155" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A155" s="10">
         <v>45533.341183518518</v>
       </c>
@@ -23721,8 +24350,12 @@
       <c r="AU155" s="11" t="s">
         <v>102</v>
       </c>
+      <c r="AW155">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
     </row>
-    <row r="156" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A156" s="10">
         <v>45533.341203391203</v>
       </c>
@@ -23862,8 +24495,12 @@
       <c r="AU156" s="11" t="s">
         <v>104</v>
       </c>
+      <c r="AW156">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
     </row>
-    <row r="157" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A157" s="10">
         <v>45533.342498668979</v>
       </c>
@@ -24003,8 +24640,12 @@
       <c r="AU157" s="11" t="s">
         <v>105</v>
       </c>
+      <c r="AW157">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
     </row>
-    <row r="158" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A158" s="10">
         <v>45533.347703611114</v>
       </c>
@@ -24144,8 +24785,12 @@
       <c r="AU158" s="11" t="s">
         <v>106</v>
       </c>
+      <c r="AW158">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
     </row>
-    <row r="159" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A159" s="10">
         <v>45533.353351099533</v>
       </c>
@@ -24285,8 +24930,12 @@
       <c r="AU159" s="11" t="s">
         <v>108</v>
       </c>
+      <c r="AW159">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
     </row>
-    <row r="160" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A160" s="10">
         <v>45533.356691458335</v>
       </c>
@@ -24426,8 +25075,12 @@
       <c r="AU160" s="11" t="s">
         <v>109</v>
       </c>
+      <c r="AW160">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
     </row>
-    <row r="161" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A161" s="10">
         <v>45527.493192627313</v>
       </c>
@@ -24567,8 +25220,12 @@
       <c r="AU161" s="11" t="s">
         <v>110</v>
       </c>
+      <c r="AW161">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
     </row>
-    <row r="162" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A162" s="10">
         <v>45527.494994432869</v>
       </c>
@@ -24708,8 +25365,12 @@
       <c r="AU162" s="11" t="s">
         <v>111</v>
       </c>
+      <c r="AW162">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
     </row>
-    <row r="163" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A163" s="10">
         <v>45527.49650883102</v>
       </c>
@@ -24849,8 +25510,12 @@
       <c r="AU163" s="11" t="s">
         <v>112</v>
       </c>
+      <c r="AW163">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
     </row>
-    <row r="164" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A164" s="10">
         <v>45527.499574189816</v>
       </c>
@@ -24990,8 +25655,12 @@
       <c r="AU164" s="11" t="s">
         <v>113</v>
       </c>
+      <c r="AW164">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
     </row>
-    <row r="165" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A165" s="10">
         <v>45527.501717766208</v>
       </c>
@@ -25131,8 +25800,12 @@
       <c r="AU165" s="11" t="s">
         <v>114</v>
       </c>
+      <c r="AW165">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
     </row>
-    <row r="166" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A166" s="10">
         <v>45527.502141319448</v>
       </c>
@@ -25272,8 +25945,12 @@
       <c r="AU166" s="11" t="s">
         <v>115</v>
       </c>
+      <c r="AW166">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
     </row>
-    <row r="167" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A167" s="10">
         <v>45527.503104293981</v>
       </c>
@@ -25413,8 +26090,12 @@
       <c r="AU167" s="11" t="s">
         <v>118</v>
       </c>
+      <c r="AW167">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
     </row>
-    <row r="168" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A168" s="10">
         <v>45527.552876712958</v>
       </c>
@@ -25554,8 +26235,12 @@
       <c r="AU168" s="11" t="s">
         <v>120</v>
       </c>
+      <c r="AW168">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
     </row>
-    <row r="169" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A169" s="10">
         <v>45527.553054780088</v>
       </c>
@@ -25695,8 +26380,12 @@
       <c r="AU169" s="11" t="s">
         <v>121</v>
       </c>
+      <c r="AW169">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
     </row>
-    <row r="170" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A170" s="10">
         <v>45537.347276388886</v>
       </c>
@@ -25836,8 +26525,12 @@
       <c r="AU170" s="11" t="s">
         <v>122</v>
       </c>
+      <c r="AW170">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
     </row>
-    <row r="171" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A171" s="10">
         <v>45537.347974050921</v>
       </c>
@@ -25977,8 +26670,12 @@
       <c r="AU171" s="11" t="s">
         <v>123</v>
       </c>
+      <c r="AW171">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
     </row>
-    <row r="172" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A172" s="10">
         <v>45537.351454918986</v>
       </c>
@@ -26118,8 +26815,12 @@
       <c r="AU172" s="11" t="s">
         <v>124</v>
       </c>
+      <c r="AW172">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
     </row>
-    <row r="173" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A173" s="10">
         <v>45537.355983414353</v>
       </c>
@@ -26259,8 +26960,12 @@
       <c r="AU173" s="11" t="s">
         <v>126</v>
       </c>
+      <c r="AW173">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
     </row>
-    <row r="174" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A174" s="10">
         <v>45510.316907766202</v>
       </c>
@@ -26400,8 +27105,12 @@
       <c r="AU174" s="11" t="s">
         <v>127</v>
       </c>
+      <c r="AW174">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
     </row>
-    <row r="175" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A175" s="10">
         <v>45517.53857506944</v>
       </c>
@@ -26541,8 +27250,12 @@
       <c r="AU175" s="11" t="s">
         <v>128</v>
       </c>
+      <c r="AW175">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
     </row>
-    <row r="176" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A176" s="10">
         <v>45517.552866111109</v>
       </c>
@@ -26682,8 +27395,12 @@
       <c r="AU176" s="11" t="s">
         <v>130</v>
       </c>
+      <c r="AW176">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
     </row>
-    <row r="177" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A177" s="10">
         <v>45517.554584583333</v>
       </c>
@@ -26823,8 +27540,12 @@
       <c r="AU177" s="11" t="s">
         <v>131</v>
       </c>
+      <c r="AW177">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
     </row>
-    <row r="178" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A178" s="10">
         <v>45527.494660486111</v>
       </c>
@@ -26964,8 +27685,12 @@
       <c r="AU178" s="11" t="s">
         <v>134</v>
       </c>
+      <c r="AW178">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
     </row>
-    <row r="179" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A179" s="10">
         <v>45527.502909039351</v>
       </c>
@@ -27105,8 +27830,12 @@
       <c r="AU179" s="11" t="s">
         <v>135</v>
       </c>
+      <c r="AW179">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
     </row>
-    <row r="180" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A180" s="10">
         <v>45533.341496898152</v>
       </c>
@@ -27246,8 +27975,12 @@
       <c r="AU180" s="11" t="s">
         <v>137</v>
       </c>
+      <c r="AW180">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
     </row>
-    <row r="181" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A181" s="10">
         <v>45533.368616030093</v>
       </c>
@@ -27387,8 +28120,12 @@
       <c r="AU181" s="11" t="s">
         <v>138</v>
       </c>
+      <c r="AW181">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
     </row>
-    <row r="182" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A182" s="10">
         <v>45537.345975694443</v>
       </c>
@@ -27528,8 +28265,12 @@
       <c r="AU182" s="11" t="s">
         <v>139</v>
       </c>
+      <c r="AW182">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
     </row>
-    <row r="183" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A183" s="10">
         <v>45527.559722719903</v>
       </c>
@@ -27669,8 +28410,12 @@
       <c r="AU183" s="11" t="s">
         <v>149</v>
       </c>
+      <c r="AW183">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
     </row>
-    <row r="184" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A184" s="10">
         <v>45527.560796180551</v>
       </c>
@@ -27810,8 +28555,12 @@
       <c r="AU184" s="11" t="s">
         <v>150</v>
       </c>
+      <c r="AW184">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
     </row>
-    <row r="185" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A185" s="10">
         <v>45527.569531238427</v>
       </c>
@@ -27951,8 +28700,12 @@
       <c r="AU185" s="11" t="s">
         <v>151</v>
       </c>
+      <c r="AW185">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
     </row>
-    <row r="186" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A186" s="10">
         <v>45527.68210607639</v>
       </c>
@@ -28092,8 +28845,12 @@
       <c r="AU186" s="11" t="s">
         <v>152</v>
       </c>
+      <c r="AW186">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
     </row>
-    <row r="187" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A187" s="10">
         <v>45533.341425243052</v>
       </c>
@@ -28233,8 +28990,12 @@
       <c r="AU187" s="11" t="s">
         <v>153</v>
       </c>
+      <c r="AW187">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
     </row>
-    <row r="188" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A188" s="10">
         <v>45533.342157233797</v>
       </c>
@@ -28374,8 +29135,12 @@
       <c r="AU188" s="11" t="s">
         <v>154</v>
       </c>
+      <c r="AW188">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
     </row>
-    <row r="189" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A189" s="10">
         <v>45517.550888703699</v>
       </c>
@@ -28515,8 +29280,12 @@
       <c r="AU189" s="11" t="s">
         <v>155</v>
       </c>
+      <c r="AW189">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
     </row>
-    <row r="190" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A190" s="10">
         <v>45517.559819444446</v>
       </c>
@@ -28656,8 +29425,12 @@
       <c r="AU190" s="11" t="s">
         <v>158</v>
       </c>
+      <c r="AW190">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
     </row>
-    <row r="191" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A191" s="10">
         <v>45527.528556319448</v>
       </c>
@@ -28797,8 +29570,12 @@
       <c r="AU191" s="11" t="s">
         <v>159</v>
       </c>
+      <c r="AW191">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
     </row>
-    <row r="192" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A192" s="10">
         <v>45527.552937430555</v>
       </c>
@@ -28938,8 +29715,12 @@
       <c r="AU192" s="11" t="s">
         <v>160</v>
       </c>
+      <c r="AW192">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
     </row>
-    <row r="193" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A193" s="10">
         <v>45527.799974629626</v>
       </c>
@@ -29079,8 +29860,12 @@
       <c r="AU193" s="11" t="s">
         <v>163</v>
       </c>
+      <c r="AW193">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
     </row>
-    <row r="194" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A194" s="10">
         <v>45533.340785613429</v>
       </c>
@@ -29220,8 +30005,12 @@
       <c r="AU194" s="11" t="s">
         <v>165</v>
       </c>
+      <c r="AW194">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
     </row>
-    <row r="195" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A195" s="10">
         <v>45533.341537175926</v>
       </c>
@@ -29361,8 +30150,12 @@
       <c r="AU195" s="11" t="s">
         <v>166</v>
       </c>
+      <c r="AW195">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
     </row>
-    <row r="196" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A196" s="10">
         <v>45533.342252719907</v>
       </c>
@@ -29502,8 +30295,12 @@
       <c r="AU196" s="11" t="s">
         <v>167</v>
       </c>
+      <c r="AW196">
+        <f t="shared" ref="AW196:AW259" si="3">SUM(G196:Q196)</f>
+        <v>60</v>
+      </c>
     </row>
-    <row r="197" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A197" s="10">
         <v>45533.342618703704</v>
       </c>
@@ -29643,8 +30440,12 @@
       <c r="AU197" s="11" t="s">
         <v>168</v>
       </c>
+      <c r="AW197">
+        <f t="shared" si="3"/>
+        <v>51</v>
+      </c>
     </row>
-    <row r="198" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A198" s="10">
         <v>45533.342623576391</v>
       </c>
@@ -29784,8 +30585,12 @@
       <c r="AU198" s="11" t="s">
         <v>169</v>
       </c>
+      <c r="AW198">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
     </row>
-    <row r="199" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A199" s="10">
         <v>45527.499031064814</v>
       </c>
@@ -29925,8 +30730,12 @@
       <c r="AU199" s="11" t="s">
         <v>173</v>
       </c>
+      <c r="AW199">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
     </row>
-    <row r="200" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A200" s="10">
         <v>45510.308032118061</v>
       </c>
@@ -30066,8 +30875,12 @@
       <c r="AU200" s="11" t="s">
         <v>175</v>
       </c>
+      <c r="AW200">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
     </row>
-    <row r="201" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A201" s="10">
         <v>45510.309578402783</v>
       </c>
@@ -30207,8 +31020,12 @@
       <c r="AU201" s="11" t="s">
         <v>177</v>
       </c>
+      <c r="AW201">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
     </row>
-    <row r="202" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A202" s="10">
         <v>45527.489690104165</v>
       </c>
@@ -30348,8 +31165,12 @@
       <c r="AU202" s="11" t="s">
         <v>179</v>
       </c>
+      <c r="AW202">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
     </row>
-    <row r="203" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A203" s="10">
         <v>45527.56168929398</v>
       </c>
@@ -30489,8 +31310,12 @@
       <c r="AU203" s="11" t="s">
         <v>190</v>
       </c>
+      <c r="AW203">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
     </row>
-    <row r="204" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A204" s="10">
         <v>45529.866290636579</v>
       </c>
@@ -30630,8 +31455,12 @@
       <c r="AU204" s="11" t="s">
         <v>192</v>
       </c>
+      <c r="AW204">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
     </row>
-    <row r="205" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A205" s="10">
         <v>45533.345139780096</v>
       </c>
@@ -30771,8 +31600,12 @@
       <c r="AU205" s="11" t="s">
         <v>194</v>
       </c>
+      <c r="AW205">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
     </row>
-    <row r="206" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A206" s="10">
         <v>45527.572596076388</v>
       </c>
@@ -30912,8 +31745,12 @@
       <c r="AU206" s="11" t="s">
         <v>198</v>
       </c>
+      <c r="AW206">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
     </row>
-    <row r="207" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A207" s="10">
         <v>45527.573704178241</v>
       </c>
@@ -31053,8 +31890,12 @@
       <c r="AU207" s="11" t="s">
         <v>199</v>
       </c>
+      <c r="AW207">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
     </row>
-    <row r="208" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A208" s="10">
         <v>45533.336911585648</v>
       </c>
@@ -31194,8 +32035,12 @@
       <c r="AU208" s="11" t="s">
         <v>205</v>
       </c>
+      <c r="AW208">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
     </row>
-    <row r="209" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A209" s="10">
         <v>45533.337791921294</v>
       </c>
@@ -31335,8 +32180,12 @@
       <c r="AU209" s="11" t="s">
         <v>206</v>
       </c>
+      <c r="AW209">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
     </row>
-    <row r="210" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A210" s="10">
         <v>45533.338198321755</v>
       </c>
@@ -31476,8 +32325,12 @@
       <c r="AU210" s="11" t="s">
         <v>208</v>
       </c>
+      <c r="AW210">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
     </row>
-    <row r="211" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A211" s="10">
         <v>45533.338947592594</v>
       </c>
@@ -31617,8 +32470,12 @@
       <c r="AU211" s="11" t="s">
         <v>209</v>
       </c>
+      <c r="AW211">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
     </row>
-    <row r="212" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A212" s="10">
         <v>45533.340529212961</v>
       </c>
@@ -31758,8 +32615,12 @@
       <c r="AU212" s="11" t="s">
         <v>210</v>
       </c>
+      <c r="AW212">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
     </row>
-    <row r="213" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A213" s="10">
         <v>45533.482328043981</v>
       </c>
@@ -31899,8 +32760,12 @@
       <c r="AU213" s="11" t="s">
         <v>211</v>
       </c>
+      <c r="AW213">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
     </row>
-    <row r="214" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A214" s="10">
         <v>45517.547989398146</v>
       </c>
@@ -32040,8 +32905,12 @@
       <c r="AU214" s="11" t="s">
         <v>212</v>
       </c>
+      <c r="AW214">
+        <f t="shared" si="3"/>
+        <v>47</v>
+      </c>
     </row>
-    <row r="215" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A215" s="10">
         <v>45517.549248888885</v>
       </c>
@@ -32181,8 +33050,12 @@
       <c r="AU215" s="11" t="s">
         <v>214</v>
       </c>
+      <c r="AW215">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
     </row>
-    <row r="216" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A216" s="10">
         <v>45534.493157245372</v>
       </c>
@@ -32322,8 +33195,12 @@
       <c r="AU216" s="11" t="s">
         <v>215</v>
       </c>
+      <c r="AW216">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
     </row>
-    <row r="217" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A217" s="10">
         <v>45527.486604745369</v>
       </c>
@@ -32463,8 +33340,12 @@
       <c r="AU217" s="11" t="s">
         <v>217</v>
       </c>
+      <c r="AW217">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
     </row>
-    <row r="218" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A218" s="10">
         <v>45527.487232708329</v>
       </c>
@@ -32604,8 +33485,12 @@
       <c r="AU218" s="11" t="s">
         <v>218</v>
       </c>
+      <c r="AW218">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
     </row>
-    <row r="219" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A219" s="10">
         <v>45527.487344664347</v>
       </c>
@@ -32745,8 +33630,12 @@
       <c r="AU219" s="11" t="s">
         <v>219</v>
       </c>
+      <c r="AW219">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
     </row>
-    <row r="220" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A220" s="10">
         <v>45527.487737951393</v>
       </c>
@@ -32886,8 +33775,12 @@
       <c r="AU220" s="11" t="s">
         <v>223</v>
       </c>
+      <c r="AW220">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
     </row>
-    <row r="221" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A221" s="10">
         <v>45527.488214745375</v>
       </c>
@@ -33027,8 +33920,12 @@
       <c r="AU221" s="11" t="s">
         <v>224</v>
       </c>
+      <c r="AW221">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
     </row>
-    <row r="222" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A222" s="10">
         <v>45527.488245532411</v>
       </c>
@@ -33168,8 +34065,12 @@
       <c r="AU222" s="11" t="s">
         <v>225</v>
       </c>
+      <c r="AW222">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
     </row>
-    <row r="223" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A223" s="10">
         <v>45527.488493414348</v>
       </c>
@@ -33309,8 +34210,12 @@
       <c r="AU223" s="11" t="s">
         <v>226</v>
       </c>
+      <c r="AW223">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
     </row>
-    <row r="224" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A224" s="10">
         <v>45527.488589583329</v>
       </c>
@@ -33450,8 +34355,12 @@
       <c r="AU224" s="11" t="s">
         <v>227</v>
       </c>
+      <c r="AW224">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
     </row>
-    <row r="225" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A225" s="10">
         <v>45527.491441180551</v>
       </c>
@@ -33591,8 +34500,12 @@
       <c r="AU225" s="11" t="s">
         <v>232</v>
       </c>
+      <c r="AW225">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
     </row>
-    <row r="226" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A226" s="10">
         <v>45527.493531898144</v>
       </c>
@@ -33732,8 +34645,12 @@
       <c r="AU226" s="11" t="s">
         <v>233</v>
       </c>
+      <c r="AW226">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
     </row>
-    <row r="227" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A227" s="10">
         <v>45529.610056597223</v>
       </c>
@@ -33873,8 +34790,12 @@
       <c r="AU227" s="11" t="s">
         <v>234</v>
       </c>
+      <c r="AW227">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
     </row>
-    <row r="228" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A228" s="10">
         <v>45531.560003043982</v>
       </c>
@@ -34014,8 +34935,12 @@
       <c r="AU228" s="11" t="s">
         <v>235</v>
       </c>
+      <c r="AW228">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
     </row>
-    <row r="229" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A229" s="10">
         <v>45534.504958055557</v>
       </c>
@@ -34155,8 +35080,12 @@
       <c r="AU229" s="11" t="s">
         <v>236</v>
       </c>
+      <c r="AW229">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
     </row>
-    <row r="230" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A230" s="10">
         <v>45510.304160162035</v>
       </c>
@@ -34296,8 +35225,12 @@
       <c r="AU230" s="11" t="s">
         <v>238</v>
       </c>
+      <c r="AW230">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
     </row>
-    <row r="231" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A231" s="10">
         <v>45517.553548888885</v>
       </c>
@@ -34437,8 +35370,12 @@
       <c r="AU231" s="11" t="s">
         <v>239</v>
       </c>
+      <c r="AW231">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
     </row>
-    <row r="232" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A232" s="10">
         <v>45517.557150567125</v>
       </c>
@@ -34578,8 +35515,12 @@
       <c r="AU232" s="11" t="s">
         <v>240</v>
       </c>
+      <c r="AW232">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
     </row>
-    <row r="233" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A233" s="10">
         <v>45527.500211631945</v>
       </c>
@@ -34719,8 +35660,12 @@
       <c r="AU233" s="11" t="s">
         <v>242</v>
       </c>
+      <c r="AW233">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
     </row>
-    <row r="234" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A234" s="10">
         <v>45527.551839444444</v>
       </c>
@@ -34860,8 +35805,12 @@
       <c r="AU234" s="11" t="s">
         <v>243</v>
       </c>
+      <c r="AW234">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
     </row>
-    <row r="235" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A235" s="10">
         <v>45527.555135787035</v>
       </c>
@@ -35001,8 +35950,12 @@
       <c r="AU235" s="11" t="s">
         <v>244</v>
       </c>
+      <c r="AW235">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
     </row>
-    <row r="236" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A236" s="10">
         <v>45527.878986967597</v>
       </c>
@@ -35142,8 +36095,12 @@
       <c r="AU236" s="11" t="s">
         <v>245</v>
       </c>
+      <c r="AW236">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
     </row>
-    <row r="237" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A237" s="10">
         <v>45527.994864305554</v>
       </c>
@@ -35283,8 +36240,12 @@
       <c r="AU237" s="11" t="s">
         <v>246</v>
       </c>
+      <c r="AW237">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
     </row>
-    <row r="238" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A238" s="10">
         <v>45532.311700428239</v>
       </c>
@@ -35424,8 +36385,12 @@
       <c r="AU238" s="11" t="s">
         <v>247</v>
       </c>
+      <c r="AW238">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
     </row>
-    <row r="239" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A239" s="10">
         <v>45533.358401342593</v>
       </c>
@@ -35565,8 +36530,12 @@
       <c r="AU239" s="11" t="s">
         <v>248</v>
       </c>
+      <c r="AW239">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
     </row>
-    <row r="240" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A240" s="10">
         <v>45533.70943185185</v>
       </c>
@@ -35706,8 +36675,12 @@
       <c r="AU240" s="11" t="s">
         <v>249</v>
       </c>
+      <c r="AW240">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
     </row>
-    <row r="241" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A241" s="10">
         <v>45517.53850318287</v>
       </c>
@@ -35847,8 +36820,12 @@
       <c r="AU241" s="11" t="s">
         <v>251</v>
       </c>
+      <c r="AW241">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
     </row>
-    <row r="242" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A242" s="10">
         <v>45527.502786249999</v>
       </c>
@@ -35988,8 +36965,12 @@
       <c r="AU242" s="11" t="s">
         <v>252</v>
       </c>
+      <c r="AW242">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
     </row>
-    <row r="243" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A243" s="10">
         <v>45527.523520925926</v>
       </c>
@@ -36129,8 +37110,12 @@
       <c r="AU243" s="11" t="s">
         <v>253</v>
       </c>
+      <c r="AW243">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
     </row>
-    <row r="244" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A244" s="10">
         <v>45527.549308634261</v>
       </c>
@@ -36270,8 +37255,12 @@
       <c r="AU244" s="11" t="s">
         <v>254</v>
       </c>
+      <c r="AW244">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
     </row>
-    <row r="245" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A245" s="10">
         <v>45527.549746296296</v>
       </c>
@@ -36411,8 +37400,12 @@
       <c r="AU245" s="11" t="s">
         <v>255</v>
       </c>
+      <c r="AW245">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
     </row>
-    <row r="246" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A246" s="10">
         <v>45527.556799675927</v>
       </c>
@@ -36552,8 +37545,12 @@
       <c r="AU246" s="11" t="s">
         <v>257</v>
       </c>
+      <c r="AW246">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
     </row>
-    <row r="247" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A247" s="10">
         <v>45533.348523761575</v>
       </c>
@@ -36693,8 +37690,12 @@
       <c r="AU247" s="11" t="s">
         <v>261</v>
       </c>
+      <c r="AW247">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
     </row>
-    <row r="248" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A248" s="10">
         <v>45510.299490787038</v>
       </c>
@@ -36834,8 +37835,12 @@
       <c r="AU248" s="11" t="s">
         <v>266</v>
       </c>
+      <c r="AW248">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
     </row>
-    <row r="249" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A249" s="10">
         <v>45527.511598750003</v>
       </c>
@@ -36975,8 +37980,12 @@
       <c r="AU249" s="11" t="s">
         <v>267</v>
       </c>
+      <c r="AW249">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
     </row>
-    <row r="250" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A250" s="10">
         <v>45527.512161678242</v>
       </c>
@@ -37116,8 +38125,12 @@
       <c r="AU250" s="11" t="s">
         <v>268</v>
       </c>
+      <c r="AW250">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
     </row>
-    <row r="251" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A251" s="10">
         <v>45527.551438136579</v>
       </c>
@@ -37257,8 +38270,12 @@
       <c r="AU251" s="11" t="s">
         <v>269</v>
       </c>
+      <c r="AW251">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
     </row>
-    <row r="252" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A252" s="10">
         <v>45527.557554375002</v>
       </c>
@@ -37398,8 +38415,12 @@
       <c r="AU252" s="11" t="s">
         <v>270</v>
       </c>
+      <c r="AW252">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
     </row>
-    <row r="253" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A253" s="10">
         <v>45533.34278608796</v>
       </c>
@@ -37539,8 +38560,12 @@
       <c r="AU253" s="11" t="s">
         <v>271</v>
       </c>
+      <c r="AW253">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
     </row>
-    <row r="254" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A254" s="10">
         <v>45533.345020995373</v>
       </c>
@@ -37680,8 +38705,12 @@
       <c r="AU254" s="11" t="s">
         <v>272</v>
       </c>
+      <c r="AW254">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
     </row>
-    <row r="255" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A255" s="10">
         <v>45533.34538993056</v>
       </c>
@@ -37821,8 +38850,12 @@
       <c r="AU255" s="11" t="s">
         <v>273</v>
       </c>
+      <c r="AW255">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
     </row>
-    <row r="256" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A256" s="10">
         <v>45533.345531793981</v>
       </c>
@@ -37962,8 +38995,12 @@
       <c r="AU256" s="11" t="s">
         <v>274</v>
       </c>
+      <c r="AW256">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
     </row>
-    <row r="257" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A257" s="10">
         <v>45533.349198090276</v>
       </c>
@@ -38103,8 +39140,12 @@
       <c r="AU257" s="11" t="s">
         <v>276</v>
       </c>
+      <c r="AW257">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
     </row>
-    <row r="258" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A258" s="10">
         <v>45533.349551527775</v>
       </c>
@@ -38244,8 +39285,12 @@
       <c r="AU258" s="11" t="s">
         <v>277</v>
       </c>
+      <c r="AW258">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
     </row>
-    <row r="259" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A259" s="10">
         <v>45527.493943275462</v>
       </c>
@@ -38385,8 +39430,12 @@
       <c r="AU259" s="11" t="s">
         <v>278</v>
       </c>
+      <c r="AW259">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
     </row>
-    <row r="260" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A260" s="10">
         <v>45527.494557708334</v>
       </c>
@@ -38526,8 +39575,12 @@
       <c r="AU260" s="11" t="s">
         <v>279</v>
       </c>
+      <c r="AW260">
+        <f t="shared" ref="AW260:AW323" si="4">SUM(G260:Q260)</f>
+        <v>32</v>
+      </c>
     </row>
-    <row r="261" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A261" s="10">
         <v>45527.505750879631</v>
       </c>
@@ -38667,8 +39720,12 @@
       <c r="AU261" s="11" t="s">
         <v>280</v>
       </c>
+      <c r="AW261">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
     </row>
-    <row r="262" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A262" s="10">
         <v>45527.55991729167</v>
       </c>
@@ -38808,8 +39865,12 @@
       <c r="AU262" s="11" t="s">
         <v>282</v>
       </c>
+      <c r="AW262">
+        <f t="shared" si="4"/>
+        <v>45</v>
+      </c>
     </row>
-    <row r="263" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A263" s="10">
         <v>45533.340089351856</v>
       </c>
@@ -38949,8 +40010,12 @@
       <c r="AU263" s="11" t="s">
         <v>283</v>
       </c>
+      <c r="AW263">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
     </row>
-    <row r="264" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A264" s="10">
         <v>45533.341730046297</v>
       </c>
@@ -39090,8 +40155,12 @@
       <c r="AU264" s="11" t="s">
         <v>285</v>
       </c>
+      <c r="AW264">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
     </row>
-    <row r="265" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A265" s="10">
         <v>45533.341985868057</v>
       </c>
@@ -39231,8 +40300,12 @@
       <c r="AU265" s="11" t="s">
         <v>286</v>
       </c>
+      <c r="AW265">
+        <f t="shared" si="4"/>
+        <v>56</v>
+      </c>
     </row>
-    <row r="266" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A266" s="10">
         <v>45533.342021249999</v>
       </c>
@@ -39372,8 +40445,12 @@
       <c r="AU266" s="11" t="s">
         <v>287</v>
       </c>
+      <c r="AW266">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
     </row>
-    <row r="267" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A267" s="10">
         <v>45533.343562395836</v>
       </c>
@@ -39513,8 +40590,12 @@
       <c r="AU267" s="11" t="s">
         <v>289</v>
       </c>
+      <c r="AW267">
+        <f t="shared" si="4"/>
+        <v>33</v>
+      </c>
     </row>
-    <row r="268" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A268" s="10">
         <v>45533.344081597221</v>
       </c>
@@ -39654,8 +40735,12 @@
       <c r="AU268" s="11" t="s">
         <v>290</v>
       </c>
+      <c r="AW268">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
     </row>
-    <row r="269" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A269" s="10">
         <v>45527.562332071757</v>
       </c>
@@ -39795,8 +40880,12 @@
       <c r="AU269" s="11" t="s">
         <v>293</v>
       </c>
+      <c r="AW269">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
     </row>
-    <row r="270" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A270" s="10">
         <v>45527.568294293982</v>
       </c>
@@ -39936,8 +41025,12 @@
       <c r="AU270" s="11" t="s">
         <v>294</v>
       </c>
+      <c r="AW270">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
     </row>
-    <row r="271" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A271" s="10">
         <v>45510.302902210649</v>
       </c>
@@ -40077,8 +41170,12 @@
       <c r="AU271" s="11" t="s">
         <v>296</v>
       </c>
+      <c r="AW271">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
     </row>
-    <row r="272" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A272" s="10">
         <v>45510.299460543982</v>
       </c>
@@ -40218,8 +41315,12 @@
       <c r="AU272" s="11" t="s">
         <v>297</v>
       </c>
+      <c r="AW272">
+        <f t="shared" si="4"/>
+        <v>46</v>
+      </c>
     </row>
-    <row r="273" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A273" s="10">
         <v>45510.29954</v>
       </c>
@@ -40359,8 +41460,12 @@
       <c r="AU273" s="11" t="s">
         <v>298</v>
       </c>
+      <c r="AW273">
+        <f t="shared" si="4"/>
+        <v>44</v>
+      </c>
     </row>
-    <row r="274" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A274" s="10">
         <v>45527.554477939819</v>
       </c>
@@ -40500,8 +41605,12 @@
       <c r="AU274" s="11" t="s">
         <v>299</v>
       </c>
+      <c r="AW274">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
     </row>
-    <row r="275" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A275" s="10">
         <v>45527.552686770832</v>
       </c>
@@ -40641,8 +41750,12 @@
       <c r="AU275" s="11" t="s">
         <v>304</v>
       </c>
+      <c r="AW275">
+        <f t="shared" si="4"/>
+        <v>41</v>
+      </c>
     </row>
-    <row r="276" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A276" s="10">
         <v>45527.560459479166</v>
       </c>
@@ -40782,8 +41895,12 @@
       <c r="AU276" s="11" t="s">
         <v>306</v>
       </c>
+      <c r="AW276">
+        <f t="shared" si="4"/>
+        <v>37</v>
+      </c>
     </row>
-    <row r="277" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A277" s="10">
         <v>45527.552135405094</v>
       </c>
@@ -40923,8 +42040,12 @@
       <c r="AU277" s="11" t="s">
         <v>307</v>
       </c>
+      <c r="AW277">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
     </row>
-    <row r="278" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A278" s="10">
         <v>45533.344708993056</v>
       </c>
@@ -41064,8 +42185,12 @@
       <c r="AU278" s="11" t="s">
         <v>309</v>
       </c>
+      <c r="AW278">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
     </row>
-    <row r="279" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A279" s="10">
         <v>45507.550637881941</v>
       </c>
@@ -41207,8 +42332,12 @@
       <c r="AU279" s="11" t="s">
         <v>313</v>
       </c>
+      <c r="AW279">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
     </row>
-    <row r="280" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A280" s="10">
         <v>45509.325568148153</v>
       </c>
@@ -41348,8 +42477,12 @@
       <c r="AU280" s="11" t="s">
         <v>321</v>
       </c>
+      <c r="AW280">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
     </row>
-    <row r="281" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A281" s="10">
         <v>45509.332694560188</v>
       </c>
@@ -41489,8 +42622,12 @@
       <c r="AU281" s="11" t="s">
         <v>322</v>
       </c>
+      <c r="AW281">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
     </row>
-    <row r="282" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A282" s="10">
         <v>45511.845416111115</v>
       </c>
@@ -41630,8 +42767,12 @@
       <c r="AU282" s="11" t="s">
         <v>324</v>
       </c>
+      <c r="AW282">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
     </row>
-    <row r="283" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A283" s="10">
         <v>45512.358234710649</v>
       </c>
@@ -41771,8 +42912,12 @@
       <c r="AU283" s="11" t="s">
         <v>325</v>
       </c>
+      <c r="AW283">
+        <f t="shared" si="4"/>
+        <v>39</v>
+      </c>
     </row>
-    <row r="284" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A284" s="10">
         <v>45527.471308125001</v>
       </c>
@@ -41912,8 +43057,12 @@
       <c r="AU284" s="11" t="s">
         <v>326</v>
       </c>
+      <c r="AW284">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
     </row>
-    <row r="285" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A285" s="10">
         <v>45528.920825740744</v>
       </c>
@@ -42053,8 +43202,12 @@
       <c r="AU285" s="11" t="s">
         <v>327</v>
       </c>
+      <c r="AW285">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
     </row>
-    <row r="286" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A286" s="10">
         <v>45534.499309710649</v>
       </c>
@@ -42194,8 +43347,12 @@
       <c r="AU286" s="11" t="s">
         <v>328</v>
       </c>
+      <c r="AW286">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
     </row>
-    <row r="287" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A287" s="10">
         <v>45509.342917268514</v>
       </c>
@@ -42335,8 +43492,12 @@
       <c r="AU287" s="11" t="s">
         <v>329</v>
       </c>
+      <c r="AW287">
+        <f t="shared" si="4"/>
+        <v>39</v>
+      </c>
     </row>
-    <row r="288" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A288" s="10">
         <v>45510.304333298613</v>
       </c>
@@ -42476,8 +43637,12 @@
       <c r="AU288" s="11" t="s">
         <v>331</v>
       </c>
+      <c r="AW288">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
     </row>
-    <row r="289" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A289" s="10">
         <v>45509.331959733798</v>
       </c>
@@ -42617,8 +43782,12 @@
       <c r="AU289" s="11" t="s">
         <v>338</v>
       </c>
+      <c r="AW289">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
     </row>
-    <row r="290" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A290" s="10">
         <v>45509.516289409723</v>
       </c>
@@ -42758,8 +43927,12 @@
       <c r="AU290" s="11" t="s">
         <v>339</v>
       </c>
+      <c r="AW290">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
     </row>
-    <row r="291" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A291" s="10">
         <v>45509.52221920139</v>
       </c>
@@ -42899,8 +44072,12 @@
       <c r="AU291" s="11" t="s">
         <v>340</v>
       </c>
+      <c r="AW291">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
     </row>
-    <row r="292" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A292" s="10">
         <v>45509.52824</v>
       </c>
@@ -43040,8 +44217,12 @@
       <c r="AU292" s="11" t="s">
         <v>342</v>
       </c>
+      <c r="AW292">
+        <f t="shared" si="4"/>
+        <v>37</v>
+      </c>
     </row>
-    <row r="293" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A293" s="10">
         <v>45511.334382766203</v>
       </c>
@@ -43181,8 +44362,12 @@
       <c r="AU293" s="11" t="s">
         <v>344</v>
       </c>
+      <c r="AW293">
+        <f t="shared" si="4"/>
+        <v>53</v>
+      </c>
     </row>
-    <row r="294" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A294" s="10">
         <v>45511.334751956019</v>
       </c>
@@ -43322,8 +44507,12 @@
       <c r="AU294" s="11" t="s">
         <v>345</v>
       </c>
+      <c r="AW294">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
     </row>
-    <row r="295" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A295" s="10">
         <v>45511.335709907406</v>
       </c>
@@ -43463,8 +44652,12 @@
       <c r="AU295" s="11" t="s">
         <v>347</v>
       </c>
+      <c r="AW295">
+        <f t="shared" si="4"/>
+        <v>44</v>
+      </c>
     </row>
-    <row r="296" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A296" s="10">
         <v>45511.336368101853</v>
       </c>
@@ -43604,8 +44797,12 @@
       <c r="AU296" s="11" t="s">
         <v>348</v>
       </c>
+      <c r="AW296">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
     </row>
-    <row r="297" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A297" s="10">
         <v>45510.675258819443</v>
       </c>
@@ -43745,8 +44942,12 @@
       <c r="AU297" s="11" t="s">
         <v>352</v>
       </c>
+      <c r="AW297">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
     </row>
-    <row r="298" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A298" s="10">
         <v>45510.676676053241</v>
       </c>
@@ -43886,8 +45087,12 @@
       <c r="AU298" s="11" t="s">
         <v>353</v>
       </c>
+      <c r="AW298">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
     </row>
-    <row r="299" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A299" s="10">
         <v>45510.680013831021</v>
       </c>
@@ -44027,8 +45232,12 @@
       <c r="AU299" s="11" t="s">
         <v>354</v>
       </c>
+      <c r="AW299">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
     </row>
-    <row r="300" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A300" s="10">
         <v>45510.761941203702</v>
       </c>
@@ -44168,8 +45377,12 @@
       <c r="AU300" s="11" t="s">
         <v>355</v>
       </c>
+      <c r="AW300">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
     </row>
-    <row r="301" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A301" s="10">
         <v>45510.765681840276</v>
       </c>
@@ -44309,8 +45522,12 @@
       <c r="AU301" s="11" t="s">
         <v>356</v>
       </c>
+      <c r="AW301">
+        <f t="shared" si="4"/>
+        <v>34</v>
+      </c>
     </row>
-    <row r="302" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A302" s="10">
         <v>45511.334943715279</v>
       </c>
@@ -44450,8 +45667,12 @@
       <c r="AU302" s="11" t="s">
         <v>366</v>
       </c>
+      <c r="AW302">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
     </row>
-    <row r="303" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A303" s="10">
         <v>45511.342084583332</v>
       </c>
@@ -44591,8 +45812,12 @@
       <c r="AU303" s="11" t="s">
         <v>368</v>
       </c>
+      <c r="AW303">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
     </row>
-    <row r="304" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A304" s="10">
         <v>45511.344817407407</v>
       </c>
@@ -44732,8 +45957,12 @@
       <c r="AU304" s="11" t="s">
         <v>369</v>
       </c>
+      <c r="AW304">
+        <f t="shared" si="4"/>
+        <v>29</v>
+      </c>
     </row>
-    <row r="305" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A305" s="10">
         <v>45511.345596550927</v>
       </c>
@@ -44873,8 +46102,12 @@
       <c r="AU305" s="11" t="s">
         <v>370</v>
       </c>
+      <c r="AW305">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
     </row>
-    <row r="306" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A306" s="10">
         <v>45512.404905347226</v>
       </c>
@@ -45014,8 +46247,12 @@
       <c r="AU306" s="11" t="s">
         <v>373</v>
       </c>
+      <c r="AW306">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
     </row>
-    <row r="307" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A307" s="10">
         <v>45512.406910057871</v>
       </c>
@@ -45155,8 +46392,12 @@
       <c r="AU307" s="11" t="s">
         <v>374</v>
       </c>
+      <c r="AW307">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
     </row>
-    <row r="308" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A308" s="10">
         <v>45512.729536180559</v>
       </c>
@@ -45296,8 +46537,12 @@
       <c r="AU308" s="11" t="s">
         <v>376</v>
       </c>
+      <c r="AW308">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
     </row>
-    <row r="309" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A309" s="10">
         <v>45510.674657407406</v>
       </c>
@@ -45437,8 +46682,12 @@
       <c r="AU309" s="11" t="s">
         <v>382</v>
       </c>
+      <c r="AW309">
+        <f t="shared" si="4"/>
+        <v>46</v>
+      </c>
     </row>
-    <row r="310" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A310" s="10">
         <v>45512.404382997687</v>
       </c>
@@ -45578,8 +46827,12 @@
       <c r="AU310" s="11" t="s">
         <v>386</v>
       </c>
+      <c r="AW310">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
     </row>
-    <row r="311" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A311" s="10">
         <v>45512.405560590283</v>
       </c>
@@ -45719,8 +46972,12 @@
       <c r="AU311" s="11" t="s">
         <v>387</v>
       </c>
+      <c r="AW311">
+        <f t="shared" si="4"/>
+        <v>45</v>
+      </c>
     </row>
-    <row r="312" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A312" s="10">
         <v>45512.407699293981</v>
       </c>
@@ -45860,8 +47117,12 @@
       <c r="AU312" s="11" t="s">
         <v>388</v>
       </c>
+      <c r="AW312">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
     </row>
-    <row r="313" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A313" s="10">
         <v>45512.407945972227</v>
       </c>
@@ -46001,8 +47262,12 @@
       <c r="AU313" s="11" t="s">
         <v>389</v>
       </c>
+      <c r="AW313">
+        <f t="shared" si="4"/>
+        <v>51</v>
+      </c>
     </row>
-    <row r="314" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A314" s="10">
         <v>45512.408266770828</v>
       </c>
@@ -46142,8 +47407,12 @@
       <c r="AU314" s="11" t="s">
         <v>390</v>
       </c>
+      <c r="AW314">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
     </row>
-    <row r="315" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A315" s="10">
         <v>45511.338182037041</v>
       </c>
@@ -46283,8 +47552,12 @@
       <c r="AU315" s="11" t="s">
         <v>397</v>
       </c>
+      <c r="AW315">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
     </row>
-    <row r="316" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A316" s="10">
         <v>45511.339798113426</v>
       </c>
@@ -46424,8 +47697,12 @@
       <c r="AU316" s="11" t="s">
         <v>398</v>
       </c>
+      <c r="AW316">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
     </row>
-    <row r="317" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A317" s="10">
         <v>45511.340224212967</v>
       </c>
@@ -46565,8 +47842,12 @@
       <c r="AU317" s="11" t="s">
         <v>399</v>
       </c>
+      <c r="AW317">
+        <f t="shared" si="4"/>
+        <v>38</v>
+      </c>
     </row>
-    <row r="318" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A318" s="10">
         <v>45509.507073773144</v>
       </c>
@@ -46706,8 +47987,12 @@
       <c r="AU318" s="11" t="s">
         <v>405</v>
       </c>
+      <c r="AW318">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
     </row>
-    <row r="319" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A319" s="10">
         <v>45511.336635972228</v>
       </c>
@@ -46847,8 +48132,12 @@
       <c r="AU319" s="11" t="s">
         <v>406</v>
       </c>
+      <c r="AW319">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
     </row>
-    <row r="320" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A320" s="10">
         <v>45511.33861324074</v>
       </c>
@@ -46988,8 +48277,12 @@
       <c r="AU320" s="11" t="s">
         <v>407</v>
       </c>
+      <c r="AW320">
+        <f t="shared" si="4"/>
+        <v>29</v>
+      </c>
     </row>
-    <row r="321" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A321" s="10">
         <v>45512.40150320602</v>
       </c>
@@ -47129,8 +48422,12 @@
       <c r="AU321" s="11" t="s">
         <v>417</v>
       </c>
+      <c r="AW321">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
     </row>
-    <row r="322" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A322" s="10">
         <v>45512.402408425929</v>
       </c>
@@ -47270,8 +48567,12 @@
       <c r="AU322" s="11" t="s">
         <v>418</v>
       </c>
+      <c r="AW322">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
     </row>
-    <row r="323" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A323" s="10">
         <v>45512.402991793977</v>
       </c>
@@ -47411,8 +48712,12 @@
       <c r="AU323" s="11" t="s">
         <v>419</v>
       </c>
+      <c r="AW323">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
     </row>
-    <row r="324" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A324" s="10">
         <v>45512.405059039353</v>
       </c>
@@ -47552,8 +48857,12 @@
       <c r="AU324" s="11" t="s">
         <v>420</v>
       </c>
+      <c r="AW324">
+        <f t="shared" ref="AW324:AW341" si="5">SUM(G324:Q324)</f>
+        <v>35</v>
+      </c>
     </row>
-    <row r="325" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A325" s="10">
         <v>45507.900714421296</v>
       </c>
@@ -47695,8 +49004,12 @@
       <c r="AU325" s="11" t="s">
         <v>421</v>
       </c>
+      <c r="AW325">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
     </row>
-    <row r="326" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A326" s="10">
         <v>45512.353115439815</v>
       </c>
@@ -47836,8 +49149,12 @@
       <c r="AU326" s="11" t="s">
         <v>426</v>
       </c>
+      <c r="AW326">
+        <f t="shared" si="5"/>
+        <v>34</v>
+      </c>
     </row>
-    <row r="327" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A327" s="10">
         <v>45512.353458842597</v>
       </c>
@@ -47977,8 +49294,12 @@
       <c r="AU327" s="11" t="s">
         <v>427</v>
       </c>
+      <c r="AW327">
+        <f t="shared" si="5"/>
+        <v>32</v>
+      </c>
     </row>
-    <row r="328" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A328" s="10">
         <v>45512.354005763889</v>
       </c>
@@ -48118,8 +49439,12 @@
       <c r="AU328" s="11" t="s">
         <v>428</v>
       </c>
+      <c r="AW328">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
     </row>
-    <row r="329" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A329" s="10">
         <v>45512.355414664351</v>
       </c>
@@ -48259,8 +49584,12 @@
       <c r="AU329" s="11" t="s">
         <v>429</v>
       </c>
+      <c r="AW329">
+        <f t="shared" si="5"/>
+        <v>42</v>
+      </c>
     </row>
-    <row r="330" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A330" s="10">
         <v>45512.398468125</v>
       </c>
@@ -48400,8 +49729,12 @@
       <c r="AU330" s="11" t="s">
         <v>430</v>
       </c>
+      <c r="AW330">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
     </row>
-    <row r="331" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A331" s="10">
         <v>45512.398809861115</v>
       </c>
@@ -48541,8 +49874,12 @@
       <c r="AU331" s="11" t="s">
         <v>431</v>
       </c>
+      <c r="AW331">
+        <f t="shared" si="5"/>
+        <v>31</v>
+      </c>
     </row>
-    <row r="332" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A332" s="10">
         <v>45512.400982743056</v>
       </c>
@@ -48682,8 +50019,12 @@
       <c r="AU332" s="11" t="s">
         <v>432</v>
       </c>
+      <c r="AW332">
+        <f t="shared" si="5"/>
+        <v>25</v>
+      </c>
     </row>
-    <row r="333" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A333" s="10">
         <v>45512.404830312502</v>
       </c>
@@ -48823,8 +50164,12 @@
       <c r="AU333" s="11" t="s">
         <v>433</v>
       </c>
+      <c r="AW333">
+        <f t="shared" si="5"/>
+        <v>23</v>
+      </c>
     </row>
-    <row r="334" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A334" s="10">
         <v>45512.404891400467</v>
       </c>
@@ -48964,8 +50309,12 @@
       <c r="AU334" s="11" t="s">
         <v>434</v>
       </c>
+      <c r="AW334">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
     </row>
-    <row r="335" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A335" s="10">
         <v>45512.405133182867</v>
       </c>
@@ -49105,8 +50454,12 @@
       <c r="AU335" s="11" t="s">
         <v>435</v>
       </c>
+      <c r="AW335">
+        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
     </row>
-    <row r="336" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A336" s="10">
         <v>45512.407059328703</v>
       </c>
@@ -49246,8 +50599,12 @@
       <c r="AU336" s="11" t="s">
         <v>436</v>
       </c>
+      <c r="AW336">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
     </row>
-    <row r="337" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A337" s="10">
         <v>45510.327499814812</v>
       </c>
@@ -49387,8 +50744,12 @@
       <c r="AU337" s="11" t="s">
         <v>440</v>
       </c>
+      <c r="AW337">
+        <f t="shared" si="5"/>
+        <v>35</v>
+      </c>
     </row>
-    <row r="338" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A338" s="10">
         <v>45510.674954351853</v>
       </c>
@@ -49528,8 +50889,12 @@
       <c r="AU338" s="11" t="s">
         <v>446</v>
       </c>
+      <c r="AW338">
+        <f t="shared" si="5"/>
+        <v>32</v>
+      </c>
     </row>
-    <row r="339" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A339" s="10">
         <v>45510.676676840274</v>
       </c>
@@ -49669,8 +51034,12 @@
       <c r="AU339" s="11" t="s">
         <v>447</v>
       </c>
+      <c r="AW339">
+        <f t="shared" si="5"/>
+        <v>38</v>
+      </c>
     </row>
-    <row r="340" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A340" s="10">
         <v>45510.406178344907</v>
       </c>
@@ -49810,8 +51179,12 @@
       <c r="AU340" s="11" t="s">
         <v>449</v>
       </c>
+      <c r="AW340">
+        <f t="shared" si="5"/>
+        <v>59</v>
+      </c>
     </row>
-    <row r="341" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A341" s="10">
         <v>45537.544535196765</v>
       </c>
@@ -49951,8 +51324,12 @@
       <c r="AU341" s="11" t="s">
         <v>452</v>
       </c>
+      <c r="AW341">
+        <f t="shared" si="5"/>
+        <v>35</v>
+      </c>
     </row>
-    <row r="342" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:49" x14ac:dyDescent="0.2">
       <c r="G342" s="19"/>
       <c r="H342" s="19"/>
       <c r="I342" s="19"/>
@@ -49992,7 +51369,7 @@
       <c r="AR342" s="24"/>
       <c r="AS342" s="24"/>
     </row>
-    <row r="343" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:49" x14ac:dyDescent="0.2">
       <c r="G343" s="19"/>
       <c r="H343" s="19"/>
       <c r="I343" s="19"/>
@@ -50032,7 +51409,7 @@
       <c r="AR343" s="24"/>
       <c r="AS343" s="24"/>
     </row>
-    <row r="344" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:49" x14ac:dyDescent="0.2">
       <c r="D344" s="11"/>
       <c r="G344" s="19"/>
       <c r="H344" s="19"/>
@@ -50073,7 +51450,7 @@
       <c r="AR344" s="24"/>
       <c r="AS344" s="24"/>
     </row>
-    <row r="345" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:49" x14ac:dyDescent="0.2">
       <c r="G345" s="19"/>
       <c r="H345" s="19"/>
       <c r="I345" s="19"/>
@@ -50113,7 +51490,7 @@
       <c r="AR345" s="24"/>
       <c r="AS345" s="24"/>
     </row>
-    <row r="346" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:49" x14ac:dyDescent="0.2">
       <c r="G346" s="19"/>
       <c r="H346" s="19"/>
       <c r="I346" s="19"/>
@@ -50153,7 +51530,7 @@
       <c r="AR346" s="24"/>
       <c r="AS346" s="24"/>
     </row>
-    <row r="347" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:49" x14ac:dyDescent="0.2">
       <c r="G347" s="19"/>
       <c r="H347" s="19"/>
       <c r="I347" s="19"/>
@@ -50193,7 +51570,7 @@
       <c r="AR347" s="24"/>
       <c r="AS347" s="24"/>
     </row>
-    <row r="348" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:49" x14ac:dyDescent="0.2">
       <c r="G348" s="19"/>
       <c r="H348" s="19"/>
       <c r="I348" s="19"/>
@@ -50233,7 +51610,7 @@
       <c r="AR348" s="24"/>
       <c r="AS348" s="24"/>
     </row>
-    <row r="349" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:49" x14ac:dyDescent="0.2">
       <c r="G349" s="19"/>
       <c r="H349" s="19"/>
       <c r="I349" s="19"/>
@@ -50273,7 +51650,7 @@
       <c r="AR349" s="24"/>
       <c r="AS349" s="24"/>
     </row>
-    <row r="350" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:49" x14ac:dyDescent="0.2">
       <c r="G350" s="19"/>
       <c r="H350" s="19"/>
       <c r="I350" s="19"/>
@@ -50313,7 +51690,7 @@
       <c r="AR350" s="24"/>
       <c r="AS350" s="24"/>
     </row>
-    <row r="351" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:49" x14ac:dyDescent="0.2">
       <c r="G351" s="19"/>
       <c r="H351" s="19"/>
       <c r="I351" s="19"/>
@@ -50353,7 +51730,7 @@
       <c r="AR351" s="24"/>
       <c r="AS351" s="24"/>
     </row>
-    <row r="352" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:49" x14ac:dyDescent="0.2">
       <c r="G352" s="19"/>
       <c r="H352" s="19"/>
       <c r="I352" s="19"/>

--- a/Copy of IS Observation Form 2024 (Responses).xlsx
+++ b/Copy of IS Observation Form 2024 (Responses).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nabtang\Documents\GitHub\IS-Observation-Form-2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8BE3379-6509-4344-A690-9BECC86274C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF647532-D9A7-48A9-81D0-D21FE98FE21C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4344" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4346" uniqueCount="456">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1488,6 +1488,12 @@
   <si>
     <t>Sigma Red</t>
   </si>
+  <si>
+    <t>Phone Addicted Male ()</t>
+  </si>
+  <si>
+    <t>Phone Addicted Female ()</t>
+  </si>
 </sst>
 </file>
 
@@ -1834,11 +1840,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AW441"/>
+  <dimension ref="A1:AZ441"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AM1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AU1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AU342" sqref="AU342"/>
+      <selection pane="bottomLeft" activeCell="AY14" sqref="AY14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1864,10 +1870,13 @@
     <col min="40" max="44" width="18.85546875" customWidth="1"/>
     <col min="45" max="45" width="26" customWidth="1"/>
     <col min="46" max="46" width="120.140625" customWidth="1"/>
-    <col min="47" max="53" width="18.85546875" customWidth="1"/>
+    <col min="47" max="50" width="18.85546875" customWidth="1"/>
+    <col min="51" max="51" width="28" customWidth="1"/>
+    <col min="52" max="52" width="26.42578125" customWidth="1"/>
+    <col min="53" max="53" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2013,7 +2022,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A2" s="10">
         <v>45509.701037893523</v>
       </c>
@@ -2157,8 +2166,14 @@
         <f>SUM(G2:Q2)</f>
         <v>16</v>
       </c>
+      <c r="AY2" t="s">
+        <v>454</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>455</v>
+      </c>
     </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A3" s="10">
         <v>45509.70180761574</v>
       </c>
@@ -2302,8 +2317,16 @@
         <f>SUM(G3:Q3)</f>
         <v>21</v>
       </c>
+      <c r="AY3">
+        <f>COUNTIF(AW2:AW142,"&gt;=31")</f>
+        <v>63</v>
+      </c>
+      <c r="AZ3">
+        <f>COUNTIF(AW143:AW341,"&gt;=33")</f>
+        <v>86</v>
+      </c>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
         <v>45510.305194814813</v>
       </c>
@@ -2448,7 +2471,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>45510.305908900467</v>
       </c>
@@ -2593,7 +2616,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
         <v>45510.450860081022</v>
       </c>
@@ -2738,7 +2761,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
         <v>45533.454514236109</v>
       </c>
@@ -2883,7 +2906,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
         <v>45534.598930266206</v>
       </c>
@@ -3028,7 +3051,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
         <v>45510.304203993059</v>
       </c>
@@ -3173,7 +3196,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
         <v>45510.306761192129</v>
       </c>
@@ -3318,7 +3341,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A11" s="10">
         <v>45517.312436354172</v>
       </c>
@@ -3463,7 +3486,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
         <v>45527.50237717593</v>
       </c>
@@ -3608,7 +3631,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
         <v>45527.505888935186</v>
       </c>
@@ -3753,7 +3776,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A14" s="10">
         <v>45517.552074386578</v>
       </c>
@@ -3898,7 +3921,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A15" s="10">
         <v>45517.554953865736</v>
       </c>
@@ -4043,7 +4066,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A16" s="10">
         <v>45517.556153761572</v>
       </c>

--- a/Copy of IS Observation Form 2024 (Responses).xlsx
+++ b/Copy of IS Observation Form 2024 (Responses).xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nabtang\Documents\GitHub\IS-Observation-Form-2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IS-Observation-Form-2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF647532-D9A7-48A9-81D0-D21FE98FE21C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Form Responses 1'!$E$1:$E$441</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,12 +33,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="AN21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="AN21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -52,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AR21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="AR21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -65,7 +64,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AS21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="AS21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -78,7 +77,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D81" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="D81" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -91,7 +90,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E81" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="E81" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -109,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4346" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4355" uniqueCount="461">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1494,13 +1493,28 @@
   <si>
     <t>Phone Addicted Female ()</t>
   </si>
+  <si>
+    <t>Non-Addicted</t>
+  </si>
+  <si>
+    <t>Addicted</t>
+  </si>
+  <si>
+    <t>1-16 times male</t>
+  </si>
+  <si>
+    <t>1-16 times female</t>
+  </si>
+  <si>
+    <t>1-16 times total</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
+    <numFmt numFmtId="187" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -1534,7 +1548,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1583,6 +1597,12 @@
         <bgColor rgb="FFCFE2F3"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1596,7 +1616,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1607,7 +1627,7 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1622,6 +1642,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1836,15 +1857,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AZ441"/>
+  <dimension ref="A1:BC441"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AU1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AY14" sqref="AY14"/>
+      <selection pane="bottomLeft" activeCell="BB11" sqref="BB11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1874,9 +1895,10 @@
     <col min="51" max="51" width="28" customWidth="1"/>
     <col min="52" max="52" width="26.42578125" customWidth="1"/>
     <col min="53" max="53" width="18.85546875" customWidth="1"/>
+    <col min="54" max="55" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2022,7 +2044,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A2" s="10">
         <v>45509.701037893523</v>
       </c>
@@ -2172,8 +2194,14 @@
       <c r="AZ2" t="s">
         <v>455</v>
       </c>
+      <c r="BB2" t="s">
+        <v>456</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>457</v>
+      </c>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A3" s="10">
         <v>45509.70180761574</v>
       </c>
@@ -2325,8 +2353,16 @@
         <f>COUNTIF(AW143:AW341,"&gt;=33")</f>
         <v>86</v>
       </c>
+      <c r="BB3">
+        <f>340-149</f>
+        <v>191</v>
+      </c>
+      <c r="BC3">
+        <f>SUM(AY3,AZ3)</f>
+        <v>149</v>
+      </c>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
         <v>45510.305194814813</v>
       </c>
@@ -2470,8 +2506,14 @@
         <f t="shared" ref="AW4:AW67" si="0">SUM(G4:Q4)</f>
         <v>31</v>
       </c>
+      <c r="BB4" s="25" t="s">
+        <v>458</v>
+      </c>
+      <c r="BC4" s="25" t="s">
+        <v>458</v>
+      </c>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>45510.305908900467</v>
       </c>
@@ -2615,8 +2657,16 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
+      <c r="BB5">
+        <f>COUNTIFS(AW2:AW142,"&lt;31",AM2:AM142,AM4)</f>
+        <v>14</v>
+      </c>
+      <c r="BC5" s="25">
+        <f>COUNTIFS(AW2:AW142,"&gt;=31",AM2:AM142,AM4)</f>
+        <v>14</v>
+      </c>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
         <v>45510.450860081022</v>
       </c>
@@ -2760,8 +2810,14 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
+      <c r="BB6" s="25" t="s">
+        <v>459</v>
+      </c>
+      <c r="BC6" s="25" t="s">
+        <v>459</v>
+      </c>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
         <v>45533.454514236109</v>
       </c>
@@ -2905,8 +2961,16 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
+      <c r="BB7">
+        <f>COUNTIFS(AW142:AW341,"&lt;33",AM142:AM341,AM145)</f>
+        <v>21</v>
+      </c>
+      <c r="BC7" s="25">
+        <f>COUNTIFS(AW142:AW341,"&gt;=33",AM142:AM341,AM145)</f>
+        <v>5</v>
+      </c>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
         <v>45534.598930266206</v>
       </c>
@@ -3050,8 +3114,14 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
+      <c r="BB8" s="25" t="s">
+        <v>460</v>
+      </c>
+      <c r="BC8" s="25" t="s">
+        <v>460</v>
+      </c>
     </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
         <v>45510.304203993059</v>
       </c>
@@ -3195,8 +3265,16 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
+      <c r="BB9">
+        <f>SUM(BB5,BB7)</f>
+        <v>35</v>
+      </c>
+      <c r="BC9" s="25">
+        <f>SUM(BC5,BC7)</f>
+        <v>19</v>
+      </c>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
         <v>45510.306761192129</v>
       </c>
@@ -3340,8 +3418,11 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
+      <c r="BB10" t="s">
+        <v>460</v>
+      </c>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A11" s="10">
         <v>45517.312436354172</v>
       </c>
@@ -3485,8 +3566,12 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
+      <c r="BB11">
+        <f>COUNTIF(AM2:AM341,AM4)</f>
+        <v>54</v>
+      </c>
     </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
         <v>45527.50237717593</v>
       </c>
@@ -3631,7 +3716,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
         <v>45527.505888935186</v>
       </c>
@@ -3776,7 +3861,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A14" s="10">
         <v>45517.552074386578</v>
       </c>
@@ -3921,7 +4006,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A15" s="10">
         <v>45517.554953865736</v>
       </c>
@@ -4066,7 +4151,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A16" s="10">
         <v>45517.556153761572</v>
       </c>
@@ -55354,8 +55439,8 @@
       <c r="AS441" s="24"/>
     </row>
   </sheetData>
-  <autoFilter ref="E1:E441" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AU441">
+  <autoFilter ref="E1:E441">
+    <sortState ref="A2:AU441">
       <sortCondition descending="1" ref="E1:E441"/>
     </sortState>
   </autoFilter>

--- a/Copy of IS Observation Form 2024 (Responses).xlsx
+++ b/Copy of IS Observation Form 2024 (Responses).xlsx
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4355" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4369" uniqueCount="470">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1508,6 +1508,33 @@
   <si>
     <t>1-16 times total</t>
   </si>
+  <si>
+    <t>17-32 times male</t>
+  </si>
+  <si>
+    <t>17-32 times female</t>
+  </si>
+  <si>
+    <t>17-32 times total</t>
+  </si>
+  <si>
+    <t>17-32 times total(full)</t>
+  </si>
+  <si>
+    <t>1-16 times total(full)</t>
+  </si>
+  <si>
+    <t>33-49 times male</t>
+  </si>
+  <si>
+    <t>33-49 times female</t>
+  </si>
+  <si>
+    <t>33-49 times total</t>
+  </si>
+  <si>
+    <t>33-49 times total(full)</t>
+  </si>
 </sst>
 </file>
 
@@ -1548,7 +1575,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1603,6 +1630,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1616,7 +1655,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1643,6 +1682,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1863,9 +1905,9 @@
   </sheetPr>
   <dimension ref="A1:BC441"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AU1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AL1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BB11" sqref="BB11"/>
+      <selection pane="bottomLeft" activeCell="BD18" sqref="BD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2661,7 +2703,7 @@
         <f>COUNTIFS(AW2:AW142,"&lt;31",AM2:AM142,AM4)</f>
         <v>14</v>
       </c>
-      <c r="BC5" s="25">
+      <c r="BC5" s="26">
         <f>COUNTIFS(AW2:AW142,"&gt;=31",AM2:AM142,AM4)</f>
         <v>14</v>
       </c>
@@ -2962,11 +3004,11 @@
         <v>29</v>
       </c>
       <c r="BB7">
-        <f>COUNTIFS(AW142:AW341,"&lt;33",AM142:AM341,AM145)</f>
+        <f>COUNTIFS(AW143:AW341,"&lt;33",AM143:AM341,AM4)</f>
         <v>21</v>
       </c>
-      <c r="BC7" s="25">
-        <f>COUNTIFS(AW142:AW341,"&gt;=33",AM142:AM341,AM145)</f>
+      <c r="BC7" s="26">
+        <f>COUNTIFS(AW143:AW341,"&gt;=33",AM143:AM341,AM145)</f>
         <v>5</v>
       </c>
     </row>
@@ -3269,7 +3311,7 @@
         <f>SUM(BB5,BB7)</f>
         <v>35</v>
       </c>
-      <c r="BC9" s="25">
+      <c r="BC9" s="26">
         <f>SUM(BC5,BC7)</f>
         <v>19</v>
       </c>
@@ -3418,8 +3460,8 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="BB10" t="s">
-        <v>460</v>
+      <c r="BB10" s="25" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="11" spans="1:55" x14ac:dyDescent="0.2">
@@ -3715,6 +3757,12 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
+      <c r="BB12" s="28" t="s">
+        <v>461</v>
+      </c>
+      <c r="BC12" s="28" t="s">
+        <v>461</v>
+      </c>
     </row>
     <row r="13" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
@@ -3860,6 +3908,14 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
+      <c r="BB13">
+        <f>COUNTIFS(AW2:AW142,"&lt;31",AM2:AM142,AM2)</f>
+        <v>31</v>
+      </c>
+      <c r="BC13">
+        <f>COUNTIFS(AW2:AW142,"&gt;=31",AM2:AM142,AM2)</f>
+        <v>13</v>
+      </c>
     </row>
     <row r="14" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A14" s="10">
@@ -4005,6 +4061,12 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
+      <c r="BB14" s="28" t="s">
+        <v>462</v>
+      </c>
+      <c r="BC14" s="28" t="s">
+        <v>462</v>
+      </c>
     </row>
     <row r="15" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A15" s="10">
@@ -4150,6 +4212,14 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
+      <c r="BB15">
+        <f>COUNTIFS(AW143:AW341,"&lt;33",AM143:AM341,AM2)</f>
+        <v>58</v>
+      </c>
+      <c r="BC15">
+        <f>COUNTIFS(AW143:AW341,"&gt;=33",AM143:AM341,AM2)</f>
+        <v>21</v>
+      </c>
     </row>
     <row r="16" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A16" s="10">
@@ -4295,8 +4365,14 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
+      <c r="BB16" s="28" t="s">
+        <v>463</v>
+      </c>
+      <c r="BC16" s="28" t="s">
+        <v>463</v>
+      </c>
     </row>
-    <row r="17" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A17" s="10">
         <v>45527.50599096065</v>
       </c>
@@ -4440,8 +4516,16 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
+      <c r="BB17">
+        <f>SUM(BB13,BB15)</f>
+        <v>89</v>
+      </c>
+      <c r="BC17">
+        <f>SUM(BC13,BC15)</f>
+        <v>34</v>
+      </c>
     </row>
-    <row r="18" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A18" s="10">
         <v>45537.348247210648</v>
       </c>
@@ -4585,8 +4669,11 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
+      <c r="BB18" s="28" t="s">
+        <v>464</v>
+      </c>
     </row>
-    <row r="19" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A19" s="10">
         <v>45537.34997362268</v>
       </c>
@@ -4730,8 +4817,12 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
+      <c r="BB19">
+        <f>COUNTIF(AM2:AM341,AM2)</f>
+        <v>123</v>
+      </c>
     </row>
-    <row r="20" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A20" s="10">
         <v>45517.554725821756</v>
       </c>
@@ -4875,8 +4966,14 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
+      <c r="BB20" s="27" t="s">
+        <v>466</v>
+      </c>
+      <c r="BC20" s="27" t="s">
+        <v>466</v>
+      </c>
     </row>
-    <row r="21" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A21" s="10">
         <v>45517.555892534721</v>
       </c>
@@ -5020,8 +5117,16 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
+      <c r="BB21">
+        <f>COUNTIFS(AW2:AW142,"&lt;31",AM2:AM142,AM3)</f>
+        <v>18</v>
+      </c>
+      <c r="BC21">
+        <f>COUNTIFS(AW2:AW142,"&gt;=31",AM2:AM142,AM3)</f>
+        <v>13</v>
+      </c>
     </row>
-    <row r="22" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A22" s="10">
         <v>45517.55537563657</v>
       </c>
@@ -5165,8 +5270,14 @@
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
+      <c r="BB22" s="27" t="s">
+        <v>467</v>
+      </c>
+      <c r="BC22" s="27" t="s">
+        <v>467</v>
+      </c>
     </row>
-    <row r="23" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A23" s="10">
         <v>45517.821303784724</v>
       </c>
@@ -5310,8 +5421,16 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
+      <c r="BB23">
+        <f>COUNTIFS(AW143:AW341,"&lt;33",AM143:AM341,AM3)</f>
+        <v>16</v>
+      </c>
+      <c r="BC23">
+        <f>COUNTIFS(AW143:AW341,"&gt;=33",AM143:AM341,AM3)</f>
+        <v>23</v>
+      </c>
     </row>
-    <row r="24" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A24" s="10">
         <v>45527.488619918979</v>
       </c>
@@ -5455,8 +5574,14 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
+      <c r="BB24" s="27" t="s">
+        <v>468</v>
+      </c>
+      <c r="BC24" s="27" t="s">
+        <v>468</v>
+      </c>
     </row>
-    <row r="25" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A25" s="10">
         <v>45517.551749062499</v>
       </c>
@@ -5600,8 +5725,16 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
+      <c r="BB25">
+        <f>SUM(BB21,BB23)</f>
+        <v>34</v>
+      </c>
+      <c r="BC25">
+        <f>SUM(BC21,BC23)</f>
+        <v>36</v>
+      </c>
     </row>
-    <row r="26" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A26" s="10">
         <v>45527.567023275464</v>
       </c>
@@ -5745,8 +5878,11 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
+      <c r="BB26" s="27" t="s">
+        <v>469</v>
+      </c>
     </row>
-    <row r="27" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A27" s="10">
         <v>45528.654501875004</v>
       </c>
@@ -5890,8 +6026,12 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
+      <c r="BB27">
+        <f>COUNTIF(AM2:AM341,AM3)</f>
+        <v>70</v>
+      </c>
     </row>
-    <row r="28" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A28" s="10">
         <v>45511.367143703705</v>
       </c>
@@ -6036,7 +6176,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A29" s="10">
         <v>45517.555438159718</v>
       </c>
@@ -6181,7 +6321,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A30" s="10">
         <v>45527.490091400468</v>
       </c>
@@ -6326,7 +6466,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A31" s="10">
         <v>45527.490132743056</v>
       </c>
@@ -6471,7 +6611,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A32" s="10">
         <v>45527.493735104166</v>
       </c>

--- a/Copy of IS Observation Form 2024 (Responses).xlsx
+++ b/Copy of IS Observation Form 2024 (Responses).xlsx
@@ -15,7 +15,7 @@
     <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Form Responses 1'!$E$1:$E$441</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Form Responses 1'!$AR$1:$AR$441</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4369" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4421" uniqueCount="504">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1535,6 +1535,108 @@
   <si>
     <t>33-49 times total(full)</t>
   </si>
+  <si>
+    <t>Difficulty failing asleep</t>
+  </si>
+  <si>
+    <t>Difficulty staying asleep</t>
+  </si>
+  <si>
+    <t>Problems waking up to early</t>
+  </si>
+  <si>
+    <t>How dissatisfied are you with your current sleep pattern</t>
+  </si>
+  <si>
+    <t>How noticeable to other think your sleep problem is it in term of impairing the quality of your life</t>
+  </si>
+  <si>
+    <t>How worried are your current sleep problem</t>
+  </si>
+  <si>
+    <t>To what extent do you consider your sleep problem to interfere with your daily funtioning currently</t>
+  </si>
+  <si>
+    <t>49 times or more male</t>
+  </si>
+  <si>
+    <t>49 times or more female</t>
+  </si>
+  <si>
+    <t>49 times or more total</t>
+  </si>
+  <si>
+    <t>49 or more total(full)</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>Phone Check</t>
+  </si>
+  <si>
+    <t>less than 3 hours male</t>
+  </si>
+  <si>
+    <t>less than 3 hours female</t>
+  </si>
+  <si>
+    <t>less than 3 hours total</t>
+  </si>
+  <si>
+    <t>less than 3 hours total(full)</t>
+  </si>
+  <si>
+    <t>3-4 hours male</t>
+  </si>
+  <si>
+    <t>3-4 hours female</t>
+  </si>
+  <si>
+    <t>3-4 hours total</t>
+  </si>
+  <si>
+    <t>3-4 hours total(full)</t>
+  </si>
+  <si>
+    <t>more than 4 hours male</t>
+  </si>
+  <si>
+    <t>more than 4 hours female</t>
+  </si>
+  <si>
+    <t>more than 4 hours total</t>
+  </si>
+  <si>
+    <t>more than 4 hours total(full)</t>
+  </si>
+  <si>
+    <t>Carrying</t>
+  </si>
+  <si>
+    <t>yes male</t>
+  </si>
+  <si>
+    <t>yes female</t>
+  </si>
+  <si>
+    <t>yes total</t>
+  </si>
+  <si>
+    <t>yes total(full)</t>
+  </si>
+  <si>
+    <t>no male</t>
+  </si>
+  <si>
+    <t>no female</t>
+  </si>
+  <si>
+    <t>no total</t>
+  </si>
+  <si>
+    <t>no total (full)</t>
+  </si>
 </sst>
 </file>
 
@@ -1575,7 +1677,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1642,6 +1744,36 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC66FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1655,7 +1787,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1685,12 +1817,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCC66FF"/>
+      <color rgb="FFFFCCCC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1903,11 +2046,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BC441"/>
+  <dimension ref="A1:BN441"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BD18" sqref="BD18"/>
+    <sheetView tabSelected="1" topLeftCell="AV1" zoomScale="71" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BB78" sqref="BB78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1937,10 +2080,18 @@
     <col min="51" max="51" width="28" customWidth="1"/>
     <col min="52" max="52" width="26.42578125" customWidth="1"/>
     <col min="53" max="53" width="18.85546875" customWidth="1"/>
-    <col min="54" max="55" width="20.28515625" customWidth="1"/>
+    <col min="54" max="54" width="26.28515625" customWidth="1"/>
+    <col min="55" max="55" width="25.7109375" customWidth="1"/>
+    <col min="60" max="60" width="30" style="29" customWidth="1"/>
+    <col min="61" max="61" width="30.42578125" style="29" customWidth="1"/>
+    <col min="62" max="62" width="26.28515625" style="29" customWidth="1"/>
+    <col min="63" max="63" width="49.85546875" style="29" customWidth="1"/>
+    <col min="64" max="64" width="81.42578125" style="29" customWidth="1"/>
+    <col min="65" max="65" width="60.85546875" style="29" customWidth="1"/>
+    <col min="66" max="66" width="84.7109375" style="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2085,8 +2236,29 @@
       <c r="AW1" t="s">
         <v>453</v>
       </c>
+      <c r="BH1" s="29" t="s">
+        <v>470</v>
+      </c>
+      <c r="BI1" s="29" t="s">
+        <v>471</v>
+      </c>
+      <c r="BJ1" s="29" t="s">
+        <v>472</v>
+      </c>
+      <c r="BK1" s="29" t="s">
+        <v>473</v>
+      </c>
+      <c r="BL1" s="29" t="s">
+        <v>474</v>
+      </c>
+      <c r="BM1" s="29" t="s">
+        <v>475</v>
+      </c>
+      <c r="BN1" s="29" t="s">
+        <v>476</v>
+      </c>
     </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A2" s="10">
         <v>45509.701037893523</v>
       </c>
@@ -2243,7 +2415,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A3" s="10">
         <v>45509.70180761574</v>
       </c>
@@ -2404,7 +2576,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
         <v>45510.305194814813</v>
       </c>
@@ -2548,6 +2720,9 @@
         <f t="shared" ref="AW4:AW67" si="0">SUM(G4:Q4)</f>
         <v>31</v>
       </c>
+      <c r="BA4" t="s">
+        <v>482</v>
+      </c>
       <c r="BB4" s="25" t="s">
         <v>458</v>
       </c>
@@ -2555,7 +2730,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>45510.305908900467</v>
       </c>
@@ -2708,7 +2883,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
         <v>45510.450860081022</v>
       </c>
@@ -2859,7 +3034,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
         <v>45533.454514236109</v>
       </c>
@@ -3012,7 +3187,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
         <v>45534.598930266206</v>
       </c>
@@ -3163,7 +3338,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
         <v>45510.304203993059</v>
       </c>
@@ -3316,7 +3491,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
         <v>45510.306761192129</v>
       </c>
@@ -3464,7 +3639,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A11" s="10">
         <v>45517.312436354172</v>
       </c>
@@ -3613,7 +3788,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
         <v>45527.50237717593</v>
       </c>
@@ -3764,7 +3939,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
         <v>45527.505888935186</v>
       </c>
@@ -3917,7 +4092,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A14" s="10">
         <v>45517.552074386578</v>
       </c>
@@ -4068,7 +4243,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A15" s="10">
         <v>45517.554953865736</v>
       </c>
@@ -4221,7 +4396,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A16" s="10">
         <v>45517.556153761572</v>
       </c>
@@ -6175,6 +6350,12 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
+      <c r="BB28" s="30" t="s">
+        <v>477</v>
+      </c>
+      <c r="BC28" s="30" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="29" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A29" s="10">
@@ -6320,6 +6501,14 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
+      <c r="BB29">
+        <f>COUNTIFS(AW2:AW142,"&lt;31",AM2:AM142,AM18)</f>
+        <v>15</v>
+      </c>
+      <c r="BC29">
+        <f>COUNTIFS(AW2:AW142,"&gt;=31",AM2:AM142,AM18)</f>
+        <v>23</v>
+      </c>
     </row>
     <row r="30" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A30" s="10">
@@ -6465,6 +6654,12 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
+      <c r="BB30" s="30" t="s">
+        <v>478</v>
+      </c>
+      <c r="BC30" s="30" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="31" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A31" s="10">
@@ -6610,6 +6805,14 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
+      <c r="BB31">
+        <f>COUNTIFS(AW143:AW341,"&lt;33",AM143:AM341,AM18)</f>
+        <v>18</v>
+      </c>
+      <c r="BC31">
+        <f>COUNTIFS(AW143:AW341,"&gt;=33",AM143:AM341,AM18)</f>
+        <v>37</v>
+      </c>
     </row>
     <row r="32" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A32" s="10">
@@ -6755,8 +6958,14 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
+      <c r="BB32" s="30" t="s">
+        <v>479</v>
+      </c>
+      <c r="BC32" s="30" t="s">
+        <v>479</v>
+      </c>
     </row>
-    <row r="33" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A33" s="10">
         <v>45527.501794317126</v>
       </c>
@@ -6900,8 +7109,16 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
+      <c r="BB33">
+        <f>SUM(BB29,BB31)</f>
+        <v>33</v>
+      </c>
+      <c r="BC33">
+        <f>SUM(BC29,BC31)</f>
+        <v>60</v>
+      </c>
     </row>
-    <row r="34" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A34" s="10">
         <v>45527.562899780096</v>
       </c>
@@ -7045,8 +7262,11 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
+      <c r="BB34" s="30" t="s">
+        <v>480</v>
+      </c>
     </row>
-    <row r="35" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A35" s="10">
         <v>45527.563307152777</v>
       </c>
@@ -7190,8 +7410,12 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
+      <c r="BB35">
+        <f>COUNTIF(AM2:AM341,AM18)</f>
+        <v>93</v>
+      </c>
     </row>
-    <row r="36" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A36" s="10">
         <v>45527.563486041661</v>
       </c>
@@ -7336,7 +7560,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A37" s="10">
         <v>45517.55057796296</v>
       </c>
@@ -7481,7 +7705,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A38" s="10">
         <v>45533.336324548611</v>
       </c>
@@ -7625,8 +7849,17 @@
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
+      <c r="BA38" t="s">
+        <v>481</v>
+      </c>
+      <c r="BB38" s="32" t="s">
+        <v>483</v>
+      </c>
+      <c r="BC38" s="32" t="s">
+        <v>483</v>
+      </c>
     </row>
-    <row r="39" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A39" s="10">
         <v>45533.336635856482</v>
       </c>
@@ -7770,8 +8003,16 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
+      <c r="BB39">
+        <f>COUNTIFS(AW2:AW142,"&lt;31",AN2:AN142,AN4)</f>
+        <v>9</v>
+      </c>
+      <c r="BC39">
+        <f>COUNTIFS(AW2:AW142,"&gt;=31",AN2:AN142,AN4)</f>
+        <v>4</v>
+      </c>
     </row>
-    <row r="40" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A40" s="10">
         <v>45533.336680335648</v>
       </c>
@@ -7915,8 +8156,14 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
+      <c r="BB40" s="32" t="s">
+        <v>484</v>
+      </c>
+      <c r="BC40" s="32" t="s">
+        <v>484</v>
+      </c>
     </row>
-    <row r="41" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A41" s="10">
         <v>45533.336773310184</v>
       </c>
@@ -8060,8 +8307,16 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
+      <c r="BB41">
+        <f>COUNTIFS(AW143:AW341,"&lt;33",AN143:AN341,AN4)</f>
+        <v>7</v>
+      </c>
+      <c r="BC41">
+        <f>COUNTIFS(AW143:AW341,"&gt;=33",AN143:AN341,AN4)</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="42" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A42" s="10">
         <v>45533.337946608794</v>
       </c>
@@ -8205,8 +8460,14 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
+      <c r="BB42" s="32" t="s">
+        <v>485</v>
+      </c>
+      <c r="BC42" s="32" t="s">
+        <v>485</v>
+      </c>
     </row>
-    <row r="43" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A43" s="10">
         <v>45517.548257256945</v>
       </c>
@@ -8350,8 +8611,16 @@
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
+      <c r="BB43">
+        <f>SUM(BB39,BB41)</f>
+        <v>16</v>
+      </c>
+      <c r="BC43">
+        <f>SUM(BC39,BC41)</f>
+        <v>5</v>
+      </c>
     </row>
-    <row r="44" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A44" s="10">
         <v>45527.486554189818</v>
       </c>
@@ -8495,8 +8764,11 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
+      <c r="BB44" s="32" t="s">
+        <v>486</v>
+      </c>
     </row>
-    <row r="45" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A45" s="10">
         <v>45527.487414305557</v>
       </c>
@@ -8640,8 +8912,12 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
+      <c r="BB45">
+        <f>COUNTIF(AN2:AN341,AN4)</f>
+        <v>21</v>
+      </c>
     </row>
-    <row r="46" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A46" s="10">
         <v>45527.487723981481</v>
       </c>
@@ -8785,8 +9061,14 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
+      <c r="BB46" s="33" t="s">
+        <v>487</v>
+      </c>
+      <c r="BC46" s="33" t="s">
+        <v>487</v>
+      </c>
     </row>
-    <row r="47" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A47" s="10">
         <v>45527.488838668985</v>
       </c>
@@ -8930,8 +9212,16 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
+      <c r="BB47">
+        <f>COUNTIFS(AW2:AW142,"&lt;31",AN2:AN142,AN3)</f>
+        <v>24</v>
+      </c>
+      <c r="BC47">
+        <f>COUNTIFS(AW2:AW142,"&gt;=31",AN2:AN142,AN3)</f>
+        <v>13</v>
+      </c>
     </row>
-    <row r="48" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A48" s="10">
         <v>45527.489154803239</v>
       </c>
@@ -9075,8 +9365,14 @@
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
+      <c r="BB48" s="33" t="s">
+        <v>488</v>
+      </c>
+      <c r="BC48" s="33" t="s">
+        <v>488</v>
+      </c>
     </row>
-    <row r="49" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A49" s="10">
         <v>45527.489314768522</v>
       </c>
@@ -9220,8 +9516,16 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
+      <c r="BB49">
+        <f>COUNTIFS(AW143:AW341,"&lt;33",AN143:AN341,AN3)</f>
+        <v>32</v>
+      </c>
+      <c r="BC49">
+        <f>COUNTIFS(AW143:AW341,"&gt;=33",AN143:AN341,AN3)</f>
+        <v>9</v>
+      </c>
     </row>
-    <row r="50" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A50" s="10">
         <v>45527.49011875</v>
       </c>
@@ -9365,8 +9669,14 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
+      <c r="BB50" s="33" t="s">
+        <v>489</v>
+      </c>
+      <c r="BC50" s="33" t="s">
+        <v>489</v>
+      </c>
     </row>
-    <row r="51" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A51" s="10">
         <v>45508.518026527774</v>
       </c>
@@ -9510,8 +9820,16 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
+      <c r="BB51">
+        <f>SUM(BB47,BB49)</f>
+        <v>56</v>
+      </c>
+      <c r="BC51">
+        <f>SUM(BC47,BC49)</f>
+        <v>22</v>
+      </c>
     </row>
-    <row r="52" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A52" s="10">
         <v>45517.745033645835</v>
       </c>
@@ -9655,8 +9973,11 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
+      <c r="BB52" s="33" t="s">
+        <v>490</v>
+      </c>
     </row>
-    <row r="53" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A53" s="10">
         <v>45533.763262800931</v>
       </c>
@@ -9800,8 +10121,12 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
+      <c r="BB53">
+        <f>COUNTIF(AN2:AN341,AN3)</f>
+        <v>78</v>
+      </c>
     </row>
-    <row r="54" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A54" s="10">
         <v>45527.555983726852</v>
       </c>
@@ -9945,8 +10270,14 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
+      <c r="BB54" s="31" t="s">
+        <v>491</v>
+      </c>
+      <c r="BC54" s="31" t="s">
+        <v>491</v>
+      </c>
     </row>
-    <row r="55" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A55" s="10">
         <v>45527.558422326387</v>
       </c>
@@ -10090,8 +10421,16 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
+      <c r="BB55">
+        <f>COUNTIFS(AW2:AW142,"&lt;31",AN2:AN142,AN2)</f>
+        <v>45</v>
+      </c>
+      <c r="BC55">
+        <f>COUNTIFS(AW2:AW142,"&gt;=31",AN2:AN142,AN2)</f>
+        <v>46</v>
+      </c>
     </row>
-    <row r="56" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A56" s="10">
         <v>45533.346102037038</v>
       </c>
@@ -10235,8 +10574,14 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
+      <c r="BB56" s="31" t="s">
+        <v>492</v>
+      </c>
+      <c r="BC56" s="31" t="s">
+        <v>491</v>
+      </c>
     </row>
-    <row r="57" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A57" s="10">
         <v>45510.302528819448</v>
       </c>
@@ -10380,8 +10725,16 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
+      <c r="BB57">
+        <f>COUNTIFS(AW143:AW341,"&lt;33",AN143:AN341,AN2)</f>
+        <v>74</v>
+      </c>
+      <c r="BC57">
+        <f>COUNTIFS(AW143:AW341,"&gt;=33",AN143:AN341,AN2)</f>
+        <v>76</v>
+      </c>
     </row>
-    <row r="58" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A58" s="10">
         <v>45513.791579062497</v>
       </c>
@@ -10525,8 +10878,14 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
+      <c r="BB58" s="31" t="s">
+        <v>493</v>
+      </c>
+      <c r="BC58" s="31" t="s">
+        <v>493</v>
+      </c>
     </row>
-    <row r="59" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A59" s="10">
         <v>45527.50915085648</v>
       </c>
@@ -10670,8 +11029,16 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
+      <c r="BB59">
+        <f>SUM(BB55,BB57)</f>
+        <v>119</v>
+      </c>
+      <c r="BC59">
+        <f>SUM(BC55,BC57)</f>
+        <v>122</v>
+      </c>
     </row>
-    <row r="60" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A60" s="10">
         <v>45527.778415312496</v>
       </c>
@@ -10815,8 +11182,11 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
+      <c r="BB60" s="31" t="s">
+        <v>494</v>
+      </c>
     </row>
-    <row r="61" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A61" s="10">
         <v>45533.347291805556</v>
       </c>
@@ -10960,8 +11330,12 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
+      <c r="BB61">
+        <f>COUNTIF(AN2:AN341,AN2)</f>
+        <v>241</v>
+      </c>
     </row>
-    <row r="62" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A62" s="10">
         <v>45527.523219791663</v>
       </c>
@@ -11106,7 +11480,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="63" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A63" s="10">
         <v>45533.341231585648</v>
       </c>
@@ -11251,7 +11625,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="64" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A64" s="10">
         <v>45533.343040833337</v>
       </c>
@@ -11395,8 +11769,17 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
+      <c r="BA64" t="s">
+        <v>495</v>
+      </c>
+      <c r="BB64" t="s">
+        <v>496</v>
+      </c>
+      <c r="BC64" t="s">
+        <v>496</v>
+      </c>
     </row>
-    <row r="65" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A65" s="10">
         <v>45533.346510092597</v>
       </c>
@@ -11540,8 +11923,16 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
+      <c r="BB65">
+        <f>COUNTIFS(AW2:AW142,"&lt;31",AO2:AO142,AO2)</f>
+        <v>53</v>
+      </c>
+      <c r="BC65">
+        <f>COUNTIFS(AW2:AW142,"&gt;=31",AO2:AO142,AO2)</f>
+        <v>47</v>
+      </c>
     </row>
-    <row r="66" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A66" s="10">
         <v>45510.298384178241</v>
       </c>
@@ -11685,8 +12076,14 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
+      <c r="BB66" t="s">
+        <v>497</v>
+      </c>
+      <c r="BC66" t="s">
+        <v>497</v>
+      </c>
     </row>
-    <row r="67" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A67" s="10">
         <v>45527.568525486116</v>
       </c>
@@ -11830,8 +12227,16 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
+      <c r="BB67">
+        <f>COUNTIFS(AW143:AW341,"&lt;33",AO143:AO341,AO2)</f>
+        <v>81</v>
+      </c>
+      <c r="BC67">
+        <f>COUNTIFS(AW143:AW341,"&gt;=33",AO143:AO341,AO2)</f>
+        <v>67</v>
+      </c>
     </row>
-    <row r="68" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A68" s="10">
         <v>45527.554662106486</v>
       </c>
@@ -11975,8 +12380,14 @@
         <f t="shared" ref="AW68:AW131" si="1">SUM(G68:Q68)</f>
         <v>31</v>
       </c>
+      <c r="BB68" t="s">
+        <v>498</v>
+      </c>
+      <c r="BC68" t="s">
+        <v>498</v>
+      </c>
     </row>
-    <row r="69" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A69" s="10">
         <v>45527.547734328706</v>
       </c>
@@ -12120,8 +12531,16 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
+      <c r="BB69">
+        <f>SUM(BB65,BB67)</f>
+        <v>134</v>
+      </c>
+      <c r="BC69">
+        <f>SUM(BC65,BC67)</f>
+        <v>114</v>
+      </c>
     </row>
-    <row r="70" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A70" s="10">
         <v>45527.547771041667</v>
       </c>
@@ -12265,8 +12684,11 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
+      <c r="BB70" t="s">
+        <v>499</v>
+      </c>
     </row>
-    <row r="71" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A71" s="10">
         <v>45527.54781877315</v>
       </c>
@@ -12410,8 +12832,12 @@
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
+      <c r="BB71">
+        <f>COUNTIF(AO2:AO341,AO2)</f>
+        <v>248</v>
+      </c>
     </row>
-    <row r="72" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A72" s="10">
         <v>45510.298182372688</v>
       </c>
@@ -12555,8 +12981,14 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
+      <c r="BB72" t="s">
+        <v>500</v>
+      </c>
+      <c r="BC72" t="s">
+        <v>500</v>
+      </c>
     </row>
-    <row r="73" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A73" s="10">
         <v>45507.545303078703</v>
       </c>
@@ -12703,7 +13135,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="74" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A74" s="10">
         <v>45507.545380034717</v>
       </c>
@@ -12849,8 +13281,14 @@
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
+      <c r="BB74" t="s">
+        <v>501</v>
+      </c>
+      <c r="BC74" t="s">
+        <v>501</v>
+      </c>
     </row>
-    <row r="75" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A75" s="10">
         <v>45507.573716840277</v>
       </c>
@@ -12997,7 +13435,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="76" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A76" s="10">
         <v>45507.582804375001</v>
       </c>
@@ -13143,8 +13581,14 @@
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
+      <c r="BB76" t="s">
+        <v>502</v>
+      </c>
+      <c r="BC76" t="s">
+        <v>502</v>
+      </c>
     </row>
-    <row r="77" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A77" s="10">
         <v>45508.261783553244</v>
       </c>
@@ -13289,7 +13733,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="78" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A78" s="10">
         <v>45508.267405694445</v>
       </c>
@@ -13433,8 +13877,11 @@
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
+      <c r="BB78" t="s">
+        <v>503</v>
+      </c>
     </row>
-    <row r="79" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A79" s="10">
         <v>45508.308609201384</v>
       </c>
@@ -13579,7 +14026,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="80" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A80" s="10">
         <v>45508.649000925929</v>
       </c>
@@ -55579,11 +56026,7 @@
       <c r="AS441" s="24"/>
     </row>
   </sheetData>
-  <autoFilter ref="E1:E441">
-    <sortState ref="A2:AU441">
-      <sortCondition descending="1" ref="E1:E441"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="AR1:AR441"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>

--- a/Copy of IS Observation Form 2024 (Responses).xlsx
+++ b/Copy of IS Observation Form 2024 (Responses).xlsx
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4421" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4451" uniqueCount="507">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1637,6 +1637,15 @@
   <si>
     <t>no total (full)</t>
   </si>
+  <si>
+    <t>Spending time</t>
+  </si>
+  <si>
+    <t>no total(full)</t>
+  </si>
+  <si>
+    <t>Checking</t>
+  </si>
 </sst>
 </file>
 
@@ -2048,9 +2057,9 @@
   </sheetPr>
   <dimension ref="A1:BN441"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AV1" zoomScale="71" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BB78" sqref="BB78"/>
+    <sheetView tabSelected="1" topLeftCell="AN1" zoomScale="71" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BB101" sqref="BB101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -13134,6 +13143,14 @@
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
+      <c r="BB73">
+        <f>COUNTIFS(AW2:AW142,"&lt;31",AO2:AO142,AO3)</f>
+        <v>25</v>
+      </c>
+      <c r="BC73">
+        <f>COUNTIFS(AW2:AW142,"&gt;=31",AO2:AO142,AO3)</f>
+        <v>16</v>
+      </c>
     </row>
     <row r="74" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A74" s="10">
@@ -13434,6 +13451,14 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
+      <c r="BB75">
+        <f>COUNTIFS(AW143:AW341,"&lt;33",AO143:AO341,AO3)</f>
+        <v>32</v>
+      </c>
+      <c r="BC75">
+        <f>COUNTIFS(AW143:AW341,"&gt;=33",AO143:AO341,AO3)</f>
+        <v>19</v>
+      </c>
     </row>
     <row r="76" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A76" s="10">
@@ -13732,6 +13757,14 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
+      <c r="BB77">
+        <f>SUM(BB73,BB75)</f>
+        <v>57</v>
+      </c>
+      <c r="BC77">
+        <f>SUM(BC73,BC75)</f>
+        <v>35</v>
+      </c>
     </row>
     <row r="78" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A78" s="10">
@@ -14025,6 +14058,10 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
+      <c r="BB79">
+        <f>COUNTIF(AO2:AO341,AO3)</f>
+        <v>92</v>
+      </c>
     </row>
     <row r="80" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A80" s="10">
@@ -14171,7 +14208,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A81" s="10">
         <v>45511.339841990739</v>
       </c>
@@ -14316,7 +14353,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="82" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A82" s="10">
         <v>45509.343424837964</v>
       </c>
@@ -14460,8 +14497,17 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
+      <c r="BA82" t="s">
+        <v>504</v>
+      </c>
+      <c r="BB82" t="s">
+        <v>496</v>
+      </c>
+      <c r="BC82" t="s">
+        <v>496</v>
+      </c>
     </row>
-    <row r="83" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A83" s="10">
         <v>45510.335351030095</v>
       </c>
@@ -14605,8 +14651,16 @@
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
+      <c r="BB83">
+        <f>COUNTIFS(AW2:AW142,"&lt;31",AP2:AP142,AP2)</f>
+        <v>69</v>
+      </c>
+      <c r="BC83">
+        <f>COUNTIFS(AW2:AW142,"&gt;=31",AP2:AP142,AP2)</f>
+        <v>57</v>
+      </c>
     </row>
-    <row r="84" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A84" s="10">
         <v>45508.273208495375</v>
       </c>
@@ -14750,8 +14804,14 @@
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
+      <c r="BB84" t="s">
+        <v>497</v>
+      </c>
+      <c r="BC84" t="s">
+        <v>497</v>
+      </c>
     </row>
-    <row r="85" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A85" s="10">
         <v>45508.273982905092</v>
       </c>
@@ -14895,8 +14955,16 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
+      <c r="BB85">
+        <f>COUNTIFS(AW143:AW341,"&lt;33",AP143:AP341,AP2)</f>
+        <v>103</v>
+      </c>
+      <c r="BC85">
+        <f>COUNTIFS(AW143:AW341,"&gt;=33",AP143:AP341,AP3)</f>
+        <v>86</v>
+      </c>
     </row>
-    <row r="86" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A86" s="10">
         <v>45508.315119756946</v>
       </c>
@@ -15040,8 +15108,14 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
+      <c r="BB86" t="s">
+        <v>498</v>
+      </c>
+      <c r="BC86" t="s">
+        <v>498</v>
+      </c>
     </row>
-    <row r="87" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A87" s="10">
         <v>45508.580843379634</v>
       </c>
@@ -15185,8 +15259,16 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
+      <c r="BB87">
+        <f>SUM(BB83,BB85)</f>
+        <v>172</v>
+      </c>
+      <c r="BC87">
+        <f>SUM(BC83,BC85)</f>
+        <v>143</v>
+      </c>
     </row>
-    <row r="88" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A88" s="10">
         <v>45510.305282719906</v>
       </c>
@@ -15330,8 +15412,11 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
+      <c r="BB88" t="s">
+        <v>499</v>
+      </c>
     </row>
-    <row r="89" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A89" s="10">
         <v>45511.335691365741</v>
       </c>
@@ -15475,8 +15560,12 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
+      <c r="BB89">
+        <f>COUNTIF(AP2:AP341,AP2)</f>
+        <v>315</v>
+      </c>
     </row>
-    <row r="90" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A90" s="10">
         <v>45511.455924305556</v>
       </c>
@@ -15620,8 +15709,14 @@
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
+      <c r="BB90" t="s">
+        <v>500</v>
+      </c>
+      <c r="BC90" t="s">
+        <v>500</v>
+      </c>
     </row>
-    <row r="91" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A91" s="10">
         <v>45507.733279062501</v>
       </c>
@@ -15767,8 +15862,16 @@
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
+      <c r="BB91">
+        <f>COUNTIFS(AW2:AW142,"&lt;31",AP2:AP142,AP8)</f>
+        <v>9</v>
+      </c>
+      <c r="BC91">
+        <f>COUNTIFS(AW2:AW142,"&gt;=31",AP2:AP142,AP8)</f>
+        <v>6</v>
+      </c>
     </row>
-    <row r="92" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A92" s="10">
         <v>45508.256419189813</v>
       </c>
@@ -15914,8 +16017,14 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
+      <c r="BB92" t="s">
+        <v>501</v>
+      </c>
+      <c r="BC92" t="s">
+        <v>501</v>
+      </c>
     </row>
-    <row r="93" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A93" s="10">
         <v>45512.493399895829</v>
       </c>
@@ -16059,8 +16168,16 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
+      <c r="BB93">
+        <f>COUNTIFS(AW143:AW341,"&lt;33",AP143:AP341,AP8)</f>
+        <v>10</v>
+      </c>
+      <c r="BC93">
+        <f>COUNTIFS(AW143:AW341,"&gt;=33",AP143:AP341,AP8)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="94" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A94" s="10">
         <v>45508.27905931713</v>
       </c>
@@ -16204,8 +16321,14 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
+      <c r="BB94" t="s">
+        <v>502</v>
+      </c>
+      <c r="BC94" t="s">
+        <v>502</v>
+      </c>
     </row>
-    <row r="95" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A95" s="10">
         <v>45508.319541712961</v>
       </c>
@@ -16349,8 +16472,14 @@
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
+      <c r="BB95">
+        <v>19</v>
+      </c>
+      <c r="BC95">
+        <v>6</v>
+      </c>
     </row>
-    <row r="96" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A96" s="10">
         <v>45508.320044745371</v>
       </c>
@@ -16494,8 +16623,11 @@
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
+      <c r="BB96" t="s">
+        <v>505</v>
+      </c>
     </row>
-    <row r="97" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A97" s="10">
         <v>45508.323908391205</v>
       </c>
@@ -16639,8 +16771,12 @@
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
+      <c r="BB97">
+        <f>COUNTIF(AP2:AP341,AP8)</f>
+        <v>25</v>
+      </c>
     </row>
-    <row r="98" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A98" s="10">
         <v>45508.32642380787</v>
       </c>
@@ -16785,7 +16921,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="99" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A99" s="10">
         <v>45508.507688784724</v>
       </c>
@@ -16930,7 +17066,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="100" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A100" s="10">
         <v>45510.328516863425</v>
       </c>
@@ -17074,8 +17210,17 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
+      <c r="BA100" t="s">
+        <v>506</v>
+      </c>
+      <c r="BB100" t="s">
+        <v>496</v>
+      </c>
+      <c r="BC100" t="s">
+        <v>496</v>
+      </c>
     </row>
-    <row r="101" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A101" s="10">
         <v>45511.335108750005</v>
       </c>
@@ -17220,7 +17365,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="102" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A102" s="10">
         <v>45512.333114328707</v>
       </c>
@@ -17364,8 +17509,14 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
+      <c r="BB102" t="s">
+        <v>497</v>
+      </c>
+      <c r="BC102" t="s">
+        <v>497</v>
+      </c>
     </row>
-    <row r="103" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A103" s="10">
         <v>45512.416400497685</v>
       </c>
@@ -17510,7 +17661,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="104" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A104" s="10">
         <v>45533.399322581019</v>
       </c>
@@ -17654,8 +17805,14 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
+      <c r="BB104" t="s">
+        <v>498</v>
+      </c>
+      <c r="BC104" t="s">
+        <v>498</v>
+      </c>
     </row>
-    <row r="105" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A105" s="10">
         <v>45508.268380219903</v>
       </c>
@@ -17800,7 +17957,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="106" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A106" s="10">
         <v>45508.356067094908</v>
       </c>
@@ -17944,8 +18101,11 @@
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
+      <c r="BB106" t="s">
+        <v>499</v>
+      </c>
     </row>
-    <row r="107" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A107" s="10">
         <v>45508.530312280098</v>
       </c>
@@ -18090,7 +18250,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="108" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A108" s="10">
         <v>45510.831899143523</v>
       </c>
@@ -18234,8 +18394,14 @@
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
+      <c r="BB108" t="s">
+        <v>500</v>
+      </c>
+      <c r="BC108" t="s">
+        <v>500</v>
+      </c>
     </row>
-    <row r="109" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A109" s="10">
         <v>45512.323136539351</v>
       </c>
@@ -18380,7 +18546,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="110" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A110" s="10">
         <v>45512.351598148147</v>
       </c>
@@ -18524,8 +18690,14 @@
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
+      <c r="BB110" t="s">
+        <v>501</v>
+      </c>
+      <c r="BC110" t="s">
+        <v>501</v>
+      </c>
     </row>
-    <row r="111" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A111" s="10">
         <v>45508.317757395838</v>
       </c>
@@ -18670,7 +18842,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="112" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A112" s="10">
         <v>45508.321220659724</v>
       </c>
@@ -18814,8 +18986,14 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
+      <c r="BB112" t="s">
+        <v>502</v>
+      </c>
+      <c r="BC112" t="s">
+        <v>502</v>
+      </c>
     </row>
-    <row r="113" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A113" s="10">
         <v>45508.460615520831</v>
       </c>
@@ -18960,7 +19138,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="114" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A114" s="10">
         <v>45509.509925046295</v>
       </c>
@@ -19104,8 +19282,11 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
+      <c r="BB114" t="s">
+        <v>505</v>
+      </c>
     </row>
-    <row r="115" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A115" s="10">
         <v>45511.334299837967</v>
       </c>
@@ -19250,7 +19431,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="116" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A116" s="10">
         <v>45511.334822337958</v>
       </c>
@@ -19395,7 +19576,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="117" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A117" s="10">
         <v>45508.321204143518</v>
       </c>
@@ -19540,7 +19721,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="118" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A118" s="10">
         <v>45508.326651203708</v>
       </c>
@@ -19685,7 +19866,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="119" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A119" s="10">
         <v>45508.32762030093</v>
       </c>
@@ -19830,7 +20011,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="120" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A120" s="10">
         <v>45508.566238344909</v>
       </c>
@@ -19975,7 +20156,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="121" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A121" s="10">
         <v>45508.274316689814</v>
       </c>
@@ -20120,7 +20301,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="122" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A122" s="10">
         <v>45508.313480682875</v>
       </c>
@@ -20265,7 +20446,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="123" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A123" s="10">
         <v>45508.318576956022</v>
       </c>
@@ -20410,7 +20591,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="124" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A124" s="10">
         <v>45508.319183125001</v>
       </c>
@@ -20555,7 +20736,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="125" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A125" s="10">
         <v>45508.341540335648</v>
       </c>
@@ -20700,7 +20881,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="126" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A126" s="10">
         <v>45508.579625659724</v>
       </c>
@@ -20845,7 +21026,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="127" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A127" s="10">
         <v>45508.580058368054</v>
       </c>
@@ -20990,7 +21171,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="128" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A128" s="10">
         <v>45511.696536041665</v>
       </c>

--- a/Copy of IS Observation Form 2024 (Responses).xlsx
+++ b/Copy of IS Observation Form 2024 (Responses).xlsx
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4451" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4495" uniqueCount="525">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1646,6 +1646,60 @@
   <si>
     <t>Checking</t>
   </si>
+  <si>
+    <t>History of sleep</t>
+  </si>
+  <si>
+    <t>Hours of sleep</t>
+  </si>
+  <si>
+    <t>less than 7 hours male</t>
+  </si>
+  <si>
+    <t>less than 7 hours female</t>
+  </si>
+  <si>
+    <t>less than 7 hours total</t>
+  </si>
+  <si>
+    <t>less than 7 hours total(full)</t>
+  </si>
+  <si>
+    <t>7 hours male</t>
+  </si>
+  <si>
+    <t>7 hours female</t>
+  </si>
+  <si>
+    <t>7 hours total</t>
+  </si>
+  <si>
+    <t>7 hours total(full)</t>
+  </si>
+  <si>
+    <t>8 hours male</t>
+  </si>
+  <si>
+    <t>8 hours female</t>
+  </si>
+  <si>
+    <t>8 hours total</t>
+  </si>
+  <si>
+    <t>8 hours total(full)</t>
+  </si>
+  <si>
+    <t>more than 8 hours male</t>
+  </si>
+  <si>
+    <t>more than 8 hours female</t>
+  </si>
+  <si>
+    <t>more than 8 hours total</t>
+  </si>
+  <si>
+    <t>more than 8 hours total(full)</t>
+  </si>
 </sst>
 </file>
 
@@ -2057,9 +2111,9 @@
   </sheetPr>
   <dimension ref="A1:BN441"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AN1" zoomScale="71" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BB101" sqref="BB101"/>
+    <sheetView tabSelected="1" topLeftCell="AU1" zoomScale="71" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BB138" sqref="BB138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -17364,6 +17418,14 @@
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
+      <c r="BB101">
+        <f>COUNTIFS(AW2:AW142,"&lt;31",AQ2:AQ142,AQ5)</f>
+        <v>47</v>
+      </c>
+      <c r="BC101">
+        <f>COUNTIFS(AW2:AW142,"&gt;=31",AQ2:AQ142,AQ5)</f>
+        <v>50</v>
+      </c>
     </row>
     <row r="102" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A102" s="10">
@@ -17660,6 +17722,14 @@
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
+      <c r="BB103">
+        <f>COUNTIFS(AW143:AW341,"&lt;33",AQ143:AQ341,AQ5)</f>
+        <v>76</v>
+      </c>
+      <c r="BC103">
+        <f>COUNTIFS(AW143:AW341,"&gt;=33",AQ143:AQ341,AQ5)</f>
+        <v>71</v>
+      </c>
     </row>
     <row r="104" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A104" s="10">
@@ -17956,6 +18026,14 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
+      <c r="BB105">
+        <f>SUM(BB101,BB103)</f>
+        <v>123</v>
+      </c>
+      <c r="BC105">
+        <f>SUM(BC101,BC103)</f>
+        <v>121</v>
+      </c>
     </row>
     <row r="106" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A106" s="10">
@@ -18249,6 +18327,10 @@
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
+      <c r="BB107">
+        <f>COUNTIF(AQ2:AQ341,AQ5)</f>
+        <v>244</v>
+      </c>
     </row>
     <row r="108" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A108" s="10">
@@ -18545,6 +18627,14 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
+      <c r="BB109">
+        <f>COUNTIFS(AW2:AW142,"&lt;31",AQ2:AQ142,AQ2)</f>
+        <v>31</v>
+      </c>
+      <c r="BC109">
+        <f>COUNTIFS(AW2:AW142,"&gt;=31",AQ2:AQ142,AQ2)</f>
+        <v>13</v>
+      </c>
     </row>
     <row r="110" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A110" s="10">
@@ -18841,6 +18931,14 @@
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
+      <c r="BB111">
+        <f>COUNTIFS(AW143:AW341,"&lt;33",AQ143:AQ341,AQ2)</f>
+        <v>37</v>
+      </c>
+      <c r="BC111">
+        <f>COUNTIFS(AW143:AW341,"&gt;=33",AQ143:AQ341,AQ2)</f>
+        <v>15</v>
+      </c>
     </row>
     <row r="112" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A112" s="10">
@@ -18993,7 +19091,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="113" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A113" s="10">
         <v>45508.460615520831</v>
       </c>
@@ -19137,8 +19235,16 @@
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
+      <c r="BB113">
+        <f>SUM(BB109,BB111)</f>
+        <v>68</v>
+      </c>
+      <c r="BC113">
+        <f>SUM(BC109,BC111)</f>
+        <v>28</v>
+      </c>
     </row>
-    <row r="114" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A114" s="10">
         <v>45509.509925046295</v>
       </c>
@@ -19286,7 +19392,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="115" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A115" s="10">
         <v>45511.334299837967</v>
       </c>
@@ -19430,8 +19536,12 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
+      <c r="BB115">
+        <f>COUNTIF(AQ2:AQ341,AQ2)</f>
+        <v>96</v>
+      </c>
     </row>
-    <row r="116" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A116" s="10">
         <v>45511.334822337958</v>
       </c>
@@ -19576,7 +19686,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="117" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A117" s="10">
         <v>45508.321204143518</v>
       </c>
@@ -19721,7 +19831,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="118" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A118" s="10">
         <v>45508.326651203708</v>
       </c>
@@ -19865,8 +19975,17 @@
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
+      <c r="BA118" t="s">
+        <v>507</v>
+      </c>
+      <c r="BB118" t="s">
+        <v>496</v>
+      </c>
+      <c r="BC118" t="s">
+        <v>496</v>
+      </c>
     </row>
-    <row r="119" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A119" s="10">
         <v>45508.32762030093</v>
       </c>
@@ -20010,8 +20129,16 @@
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
+      <c r="BB119">
+        <f>COUNTIFS(AW2:AW142,"&lt;31",AR2:AR142,AR2)</f>
+        <v>29</v>
+      </c>
+      <c r="BC119">
+        <f>COUNTIFS(AW2:AW142,"&gt;=31",AR2:AR142,AR2)</f>
+        <v>33</v>
+      </c>
     </row>
-    <row r="120" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A120" s="10">
         <v>45508.566238344909</v>
       </c>
@@ -20155,8 +20282,14 @@
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
+      <c r="BB120" t="s">
+        <v>497</v>
+      </c>
+      <c r="BC120" t="s">
+        <v>497</v>
+      </c>
     </row>
-    <row r="121" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A121" s="10">
         <v>45508.274316689814</v>
       </c>
@@ -20300,8 +20433,16 @@
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
+      <c r="BB121">
+        <f>COUNTIFS(AW143:AW341,"&lt;33",AR143:AR341,AR2)</f>
+        <v>38</v>
+      </c>
+      <c r="BC121">
+        <f>COUNTIFS(AW143:AW341,"&gt;=33",AR143:AR341,AR2)</f>
+        <v>41</v>
+      </c>
     </row>
-    <row r="122" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A122" s="10">
         <v>45508.313480682875</v>
       </c>
@@ -20445,8 +20586,14 @@
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
+      <c r="BB122" t="s">
+        <v>498</v>
+      </c>
+      <c r="BC122" t="s">
+        <v>498</v>
+      </c>
     </row>
-    <row r="123" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A123" s="10">
         <v>45508.318576956022</v>
       </c>
@@ -20590,8 +20737,16 @@
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
+      <c r="BB123">
+        <f>SUM(BB119,BB121)</f>
+        <v>67</v>
+      </c>
+      <c r="BC123">
+        <f>SUM(BC119,BC121)</f>
+        <v>74</v>
+      </c>
     </row>
-    <row r="124" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A124" s="10">
         <v>45508.319183125001</v>
       </c>
@@ -20735,8 +20890,11 @@
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
+      <c r="BB124" t="s">
+        <v>499</v>
+      </c>
     </row>
-    <row r="125" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A125" s="10">
         <v>45508.341540335648</v>
       </c>
@@ -20880,8 +21038,12 @@
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
+      <c r="BB125">
+        <f>COUNTIF(AR2:AR341,AR2)</f>
+        <v>141</v>
+      </c>
     </row>
-    <row r="126" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A126" s="10">
         <v>45508.579625659724</v>
       </c>
@@ -21025,8 +21187,14 @@
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
+      <c r="BB126" t="s">
+        <v>500</v>
+      </c>
+      <c r="BC126" t="s">
+        <v>500</v>
+      </c>
     </row>
-    <row r="127" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A127" s="10">
         <v>45508.580058368054</v>
       </c>
@@ -21170,8 +21338,16 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
+      <c r="BB127">
+        <f>COUNTIFS(AW2:AW142,"&lt;31",AR2:AR142,AR3)</f>
+        <v>49</v>
+      </c>
+      <c r="BC127">
+        <f>COUNTIFS(AW2:AW142,"&gt;=31",AR2:AR142,AR3)</f>
+        <v>30</v>
+      </c>
     </row>
-    <row r="128" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A128" s="10">
         <v>45511.696536041665</v>
       </c>
@@ -21315,8 +21491,14 @@
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
+      <c r="BB128" t="s">
+        <v>501</v>
+      </c>
+      <c r="BC128" t="s">
+        <v>501</v>
+      </c>
     </row>
-    <row r="129" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A129" s="10">
         <v>45508.317449930561</v>
       </c>
@@ -21460,8 +21642,16 @@
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
+      <c r="BB129">
+        <f>COUNTIFS(AW143:AW341,"&lt;33",AR143:AR341,AR3)</f>
+        <v>75</v>
+      </c>
+      <c r="BC129">
+        <f>COUNTIFS(AW143:AW341,"&gt;=33",AR143:AR341,AR3)</f>
+        <v>45</v>
+      </c>
     </row>
-    <row r="130" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A130" s="10">
         <v>45508.324900810185</v>
       </c>
@@ -21605,8 +21795,14 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
+      <c r="BB130" t="s">
+        <v>502</v>
+      </c>
+      <c r="BC130" t="s">
+        <v>502</v>
+      </c>
     </row>
-    <row r="131" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A131" s="10">
         <v>45510.29671524305</v>
       </c>
@@ -21750,8 +21946,16 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
+      <c r="BB131">
+        <f>SUM(BB127,BB129)</f>
+        <v>124</v>
+      </c>
+      <c r="BC131">
+        <f>SUM(BC127,BC129)</f>
+        <v>75</v>
+      </c>
     </row>
-    <row r="132" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A132" s="10">
         <v>45510.351478599536</v>
       </c>
@@ -21895,8 +22099,11 @@
         <f t="shared" ref="AW132:AW195" si="2">SUM(G132:Q132)</f>
         <v>12</v>
       </c>
+      <c r="BB132" t="s">
+        <v>505</v>
+      </c>
     </row>
-    <row r="133" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A133" s="10">
         <v>45508.281388344913</v>
       </c>
@@ -22040,8 +22247,12 @@
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
+      <c r="BB133">
+        <f>COUNTIF(AR2:AR341,AR3)</f>
+        <v>199</v>
+      </c>
     </row>
-    <row r="134" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A134" s="10">
         <v>45508.580698483798</v>
       </c>
@@ -22186,7 +22397,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="135" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A135" s="10">
         <v>45508.272878113421</v>
       </c>
@@ -22331,7 +22542,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="136" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A136" s="10">
         <v>45508.27796871528</v>
       </c>
@@ -22475,8 +22686,17 @@
         <f t="shared" si="2"/>
         <v>49</v>
       </c>
+      <c r="BA136" t="s">
+        <v>508</v>
+      </c>
+      <c r="BB136" t="s">
+        <v>509</v>
+      </c>
+      <c r="BC136" t="s">
+        <v>509</v>
+      </c>
     </row>
-    <row r="137" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A137" s="10">
         <v>45508.31701053241</v>
       </c>
@@ -22620,8 +22840,12 @@
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
+      <c r="BB137">
+        <f>COUNTIFS(AW2:AW142,"&lt;31",AS2:AS142,AS4)</f>
+        <v>32</v>
+      </c>
     </row>
-    <row r="138" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A138" s="10">
         <v>45508.317276608796</v>
       </c>
@@ -22765,8 +22989,14 @@
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
+      <c r="BB138" t="s">
+        <v>510</v>
+      </c>
+      <c r="BC138" t="s">
+        <v>510</v>
+      </c>
     </row>
-    <row r="139" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A139" s="10">
         <v>45508.31775018519</v>
       </c>
@@ -22911,7 +23141,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="140" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A140" s="10">
         <v>45510.680023564812</v>
       </c>
@@ -23055,8 +23285,14 @@
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
+      <c r="BB140" t="s">
+        <v>511</v>
+      </c>
+      <c r="BC140" t="s">
+        <v>511</v>
+      </c>
     </row>
-    <row r="141" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A141" s="10">
         <v>45537.493738344907</v>
       </c>
@@ -23201,7 +23437,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="142" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A142" s="10">
         <v>45537.494367245366</v>
       </c>
@@ -23345,8 +23581,11 @@
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
+      <c r="BB142" t="s">
+        <v>512</v>
+      </c>
     </row>
-    <row r="143" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A143" s="10">
         <v>45510.295152615741</v>
       </c>
@@ -23491,7 +23730,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="144" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A144" s="10">
         <v>45510.295286157409</v>
       </c>
@@ -23635,8 +23874,14 @@
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
+      <c r="BB144" t="s">
+        <v>513</v>
+      </c>
+      <c r="BC144" t="s">
+        <v>513</v>
+      </c>
     </row>
-    <row r="145" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A145" s="10">
         <v>45510.296494560185</v>
       </c>
@@ -23781,7 +24026,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="146" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A146" s="10">
         <v>45510.298305810182</v>
       </c>
@@ -23925,8 +24170,14 @@
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
+      <c r="BB146" t="s">
+        <v>514</v>
+      </c>
+      <c r="BC146" t="s">
+        <v>514</v>
+      </c>
     </row>
-    <row r="147" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A147" s="10">
         <v>45510.299961990742</v>
       </c>
@@ -24071,7 +24322,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="148" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A148" s="10">
         <v>45512.335438576389</v>
       </c>
@@ -24215,8 +24466,14 @@
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
+      <c r="BB148" t="s">
+        <v>515</v>
+      </c>
+      <c r="BC148" t="s">
+        <v>515</v>
+      </c>
     </row>
-    <row r="149" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A149" s="10">
         <v>45527.560776909726</v>
       </c>
@@ -24361,7 +24618,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="150" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A150" s="10">
         <v>45527.491834965273</v>
       </c>
@@ -24505,8 +24762,11 @@
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
+      <c r="BB150" t="s">
+        <v>516</v>
+      </c>
     </row>
-    <row r="151" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A151" s="10">
         <v>45527.554888148152</v>
       </c>
@@ -24651,7 +24911,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="152" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A152" s="10">
         <v>45533.335085601851</v>
       </c>
@@ -24795,8 +25055,14 @@
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
+      <c r="BB152" t="s">
+        <v>517</v>
+      </c>
+      <c r="BC152" t="s">
+        <v>517</v>
+      </c>
     </row>
-    <row r="153" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A153" s="10">
         <v>45533.336794363422</v>
       </c>
@@ -24941,7 +25207,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="154" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A154" s="10">
         <v>45533.339490682869</v>
       </c>
@@ -25085,8 +25351,14 @@
         <f t="shared" si="2"/>
         <v>41</v>
       </c>
+      <c r="BB154" t="s">
+        <v>518</v>
+      </c>
+      <c r="BC154" t="s">
+        <v>518</v>
+      </c>
     </row>
-    <row r="155" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A155" s="10">
         <v>45533.341183518518</v>
       </c>
@@ -25231,7 +25503,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="156" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A156" s="10">
         <v>45533.341203391203</v>
       </c>
@@ -25375,8 +25647,14 @@
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
+      <c r="BB156" t="s">
+        <v>519</v>
+      </c>
+      <c r="BC156" t="s">
+        <v>519</v>
+      </c>
     </row>
-    <row r="157" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A157" s="10">
         <v>45533.342498668979</v>
       </c>
@@ -25521,7 +25799,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="158" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A158" s="10">
         <v>45533.347703611114</v>
       </c>
@@ -25665,8 +25943,11 @@
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
+      <c r="BB158" t="s">
+        <v>520</v>
+      </c>
     </row>
-    <row r="159" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A159" s="10">
         <v>45533.353351099533</v>
       </c>
@@ -25811,7 +26092,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="160" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A160" s="10">
         <v>45533.356691458335</v>
       </c>
@@ -25955,8 +26236,14 @@
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
+      <c r="BB160" t="s">
+        <v>521</v>
+      </c>
+      <c r="BC160" t="s">
+        <v>521</v>
+      </c>
     </row>
-    <row r="161" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A161" s="10">
         <v>45527.493192627313</v>
       </c>
@@ -26101,7 +26388,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="162" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A162" s="10">
         <v>45527.494994432869</v>
       </c>
@@ -26245,8 +26532,14 @@
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
+      <c r="BB162" t="s">
+        <v>522</v>
+      </c>
+      <c r="BC162" t="s">
+        <v>522</v>
+      </c>
     </row>
-    <row r="163" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A163" s="10">
         <v>45527.49650883102</v>
       </c>
@@ -26391,7 +26684,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="164" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A164" s="10">
         <v>45527.499574189816</v>
       </c>
@@ -26535,8 +26828,14 @@
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
+      <c r="BB164" t="s">
+        <v>523</v>
+      </c>
+      <c r="BC164" t="s">
+        <v>523</v>
+      </c>
     </row>
-    <row r="165" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A165" s="10">
         <v>45527.501717766208</v>
       </c>
@@ -26681,7 +26980,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="166" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A166" s="10">
         <v>45527.502141319448</v>
       </c>
@@ -26825,8 +27124,11 @@
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
+      <c r="BB166" t="s">
+        <v>524</v>
+      </c>
     </row>
-    <row r="167" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A167" s="10">
         <v>45527.503104293981</v>
       </c>
@@ -26971,7 +27273,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="168" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A168" s="10">
         <v>45527.552876712958</v>
       </c>
@@ -27116,7 +27418,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="169" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A169" s="10">
         <v>45527.553054780088</v>
       </c>
@@ -27261,7 +27563,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="170" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A170" s="10">
         <v>45537.347276388886</v>
       </c>
@@ -27406,7 +27708,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="171" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A171" s="10">
         <v>45537.347974050921</v>
       </c>
@@ -27551,7 +27853,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="172" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A172" s="10">
         <v>45537.351454918986</v>
       </c>
@@ -27696,7 +27998,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="173" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A173" s="10">
         <v>45537.355983414353</v>
       </c>
@@ -27841,7 +28143,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="174" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A174" s="10">
         <v>45510.316907766202</v>
       </c>
@@ -27986,7 +28288,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="175" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A175" s="10">
         <v>45517.53857506944</v>
       </c>
@@ -28131,7 +28433,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="176" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A176" s="10">
         <v>45517.552866111109</v>
       </c>

--- a/Copy of IS Observation Form 2024 (Responses).xlsx
+++ b/Copy of IS Observation Form 2024 (Responses).xlsx
@@ -2111,9 +2111,9 @@
   </sheetPr>
   <dimension ref="A1:BN441"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AU1" zoomScale="71" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BB138" sqref="BB138"/>
+    <sheetView tabSelected="1" topLeftCell="AX1" zoomScale="71" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BB160" sqref="BB160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -22844,6 +22844,10 @@
         <f>COUNTIFS(AW2:AW142,"&lt;31",AS2:AS142,AS4)</f>
         <v>32</v>
       </c>
+      <c r="BC137">
+        <f>COUNTIFS(AW2:AW142,"&gt;=31",AS2:AS142,AS4)</f>
+        <v>25</v>
+      </c>
     </row>
     <row r="138" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A138" s="10">
@@ -23140,6 +23144,14 @@
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
+      <c r="BB139">
+        <f>COUNTIFS(AW143:AW341,"&lt;33",AS143:AS341,AS4)</f>
+        <v>43</v>
+      </c>
+      <c r="BC139">
+        <f>COUNTIFS(AW143:AW341,"&gt;=33",AS143:AS341,AS4)</f>
+        <v>48</v>
+      </c>
     </row>
     <row r="140" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A140" s="10">
@@ -23436,6 +23448,14 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
+      <c r="BB141">
+        <f>SUM(BB137,BB139)</f>
+        <v>75</v>
+      </c>
+      <c r="BC141">
+        <f>SUM(BC137,BC139)</f>
+        <v>73</v>
+      </c>
     </row>
     <row r="142" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A142" s="10">
@@ -23729,6 +23749,10 @@
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
+      <c r="BB143">
+        <f>COUNTIF(AS2:AS341,AS4)</f>
+        <v>148</v>
+      </c>
     </row>
     <row r="144" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A144" s="10">
@@ -24025,6 +24049,14 @@
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
+      <c r="BB145">
+        <f>COUNTIFS(AW2:AW142,"&lt;31",AS2:AS142,AS3)</f>
+        <v>33</v>
+      </c>
+      <c r="BC145">
+        <f>COUNTIFS(AW2:AW142,"&gt;=31",AS2:AS142,AS3)</f>
+        <v>20</v>
+      </c>
     </row>
     <row r="146" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A146" s="10">
@@ -24321,6 +24353,14 @@
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
+      <c r="BB147">
+        <f>COUNTIFS(AW143:AW341,"&lt;33",AS143:AS341,AS3)</f>
+        <v>38</v>
+      </c>
+      <c r="BC147">
+        <f>COUNTIFS(AW143:AW341,"&gt;=33",AS143:AS341,AS3)</f>
+        <v>19</v>
+      </c>
     </row>
     <row r="148" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A148" s="10">
@@ -24617,6 +24657,14 @@
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
+      <c r="BB149">
+        <f>SUM(BB145,BB147)</f>
+        <v>71</v>
+      </c>
+      <c r="BC149">
+        <f>SUM(BC145,BC147)</f>
+        <v>39</v>
+      </c>
     </row>
     <row r="150" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A150" s="10">
@@ -24910,6 +24958,10 @@
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
+      <c r="BB151">
+        <f>COUNTIF(AS2:AS341,AS3)</f>
+        <v>110</v>
+      </c>
     </row>
     <row r="152" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A152" s="10">
@@ -25206,6 +25258,14 @@
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
+      <c r="BB153">
+        <f>COUNTIFS(AW2:AW142,"&lt;31",AS2:AS142,AS14)</f>
+        <v>6</v>
+      </c>
+      <c r="BC153">
+        <f>COUNTIFS(AW2:AW142,"&gt;=31",AS2:AS142,AS14)</f>
+        <v>14</v>
+      </c>
     </row>
     <row r="154" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A154" s="10">
@@ -25502,6 +25562,14 @@
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
+      <c r="BB155">
+        <f>COUNTIFS(AW143:AW341,"&lt;33",AS143:AS341,AS14)</f>
+        <v>20</v>
+      </c>
+      <c r="BC155">
+        <f>COUNTIFS(AW143:AW341,"&gt;=33",AS143:AS341,AS14)</f>
+        <v>13</v>
+      </c>
     </row>
     <row r="156" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A156" s="10">
@@ -25798,6 +25866,14 @@
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
+      <c r="BB157">
+        <f>SUM(BB153,BB155)</f>
+        <v>26</v>
+      </c>
+      <c r="BC157">
+        <f>SUM(BC153,BC155)</f>
+        <v>27</v>
+      </c>
     </row>
     <row r="158" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A158" s="10">
@@ -26090,6 +26166,10 @@
       <c r="AW159">
         <f t="shared" si="2"/>
         <v>22</v>
+      </c>
+      <c r="BB159">
+        <f>COUNTIF(AS2:AS341,AS14)</f>
+        <v>53</v>
       </c>
     </row>
     <row r="160" spans="1:55" x14ac:dyDescent="0.2">

--- a/Copy of IS Observation Form 2024 (Responses).xlsx
+++ b/Copy of IS Observation Form 2024 (Responses).xlsx
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4495" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4512" uniqueCount="537">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1700,6 +1700,42 @@
   <si>
     <t>more than 8 hours total(full)</t>
   </si>
+  <si>
+    <t>-------------------------------------------</t>
+  </si>
+  <si>
+    <t>-----------------------------------------</t>
+  </si>
+  <si>
+    <t>15 years old or lower male</t>
+  </si>
+  <si>
+    <t>15 year old or lower male</t>
+  </si>
+  <si>
+    <t>15 years old or lower female</t>
+  </si>
+  <si>
+    <t>15 year old or lower total</t>
+  </si>
+  <si>
+    <t>15 years old lower total</t>
+  </si>
+  <si>
+    <t>15 year old total(full)</t>
+  </si>
+  <si>
+    <t>16 years old male</t>
+  </si>
+  <si>
+    <t>16 years old female</t>
+  </si>
+  <si>
+    <t>16 years old total</t>
+  </si>
+  <si>
+    <t>16 years old total(full)</t>
+  </si>
 </sst>
 </file>
 
@@ -1850,7 +1886,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1885,6 +1921,7 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2111,9 +2148,9 @@
   </sheetPr>
   <dimension ref="A1:BN441"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AX1" zoomScale="71" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BB160" sqref="BB160"/>
+    <sheetView tabSelected="1" topLeftCell="AY1" zoomScale="71" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BB187" sqref="BB187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -26467,6 +26504,14 @@
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
+      <c r="BB161">
+        <f>COUNTIFS(AW2:AW142,"&lt;31",AS2:AS142,AS2)</f>
+        <v>7</v>
+      </c>
+      <c r="BC161">
+        <f>COUNTIFS(AW2:AW142,"&gt;=31",AS2:AS142,AS2)</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="162" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A162" s="10">
@@ -26763,6 +26808,14 @@
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
+      <c r="BB163">
+        <f>COUNTIFS(AW143:AW341,"&lt;33",AS143:AS341,AS2)</f>
+        <v>12</v>
+      </c>
+      <c r="BC163">
+        <f>COUNTIFS(AW143:AW341,"&gt;=33",AS143:AS341,AS2)</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="164" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A164" s="10">
@@ -27059,6 +27112,14 @@
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
+      <c r="BB165">
+        <f>SUM(BB161,BB163)</f>
+        <v>19</v>
+      </c>
+      <c r="BC165">
+        <f>SUM(BC161,BC163)</f>
+        <v>10</v>
+      </c>
     </row>
     <row r="166" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A166" s="10">
@@ -27352,6 +27413,10 @@
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
+      <c r="BB167">
+        <f>COUNTIF(AS2:AS341,AS2)</f>
+        <v>29</v>
+      </c>
     </row>
     <row r="168" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A168" s="10">
@@ -27642,6 +27707,12 @@
         <f t="shared" si="2"/>
         <v>43</v>
       </c>
+      <c r="BB169" s="34" t="s">
+        <v>525</v>
+      </c>
+      <c r="BC169" s="34" t="s">
+        <v>526</v>
+      </c>
     </row>
     <row r="170" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A170" s="10">
@@ -27932,6 +28003,15 @@
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
+      <c r="BA171" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB171" t="s">
+        <v>527</v>
+      </c>
+      <c r="BC171" t="s">
+        <v>528</v>
+      </c>
     </row>
     <row r="172" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A172" s="10">
@@ -28077,6 +28157,14 @@
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
+      <c r="BB172">
+        <f>COUNTIFS(AW2:AW142,"&lt;31",D2:D142,D2)</f>
+        <v>14</v>
+      </c>
+      <c r="BC172">
+        <f>COUNTIFS(AW2:AW142,"&gt;=31",D2:D142,D2)</f>
+        <v>14</v>
+      </c>
     </row>
     <row r="173" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A173" s="10">
@@ -28222,6 +28310,12 @@
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
+      <c r="BB173" t="s">
+        <v>529</v>
+      </c>
+      <c r="BC173" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="174" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A174" s="10">
@@ -28367,6 +28461,14 @@
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
+      <c r="BB174">
+        <f>COUNTIFS(AW143:AW341,"&lt;33",D143:D341,D2)</f>
+        <v>28</v>
+      </c>
+      <c r="BC174">
+        <f>COUNTIFS(AW143:AW341,"&gt;=33",D143:D341,D2)</f>
+        <v>17</v>
+      </c>
     </row>
     <row r="175" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A175" s="10">
@@ -28512,6 +28614,12 @@
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
+      <c r="BB175" t="s">
+        <v>530</v>
+      </c>
+      <c r="BC175" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="176" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A176" s="10">
@@ -28657,8 +28765,16 @@
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
+      <c r="BB176">
+        <f>SUM(BB172,BB174)</f>
+        <v>42</v>
+      </c>
+      <c r="BC176">
+        <f>SUM(BC172,BC174)</f>
+        <v>31</v>
+      </c>
     </row>
-    <row r="177" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A177" s="10">
         <v>45517.554584583333</v>
       </c>
@@ -28802,8 +28918,11 @@
         <f t="shared" si="2"/>
         <v>47</v>
       </c>
+      <c r="BB177" t="s">
+        <v>532</v>
+      </c>
     </row>
-    <row r="178" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A178" s="10">
         <v>45527.494660486111</v>
       </c>
@@ -28947,8 +29066,12 @@
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
+      <c r="BB178">
+        <f>COUNTIF(D2:D341,D2)</f>
+        <v>73</v>
+      </c>
     </row>
-    <row r="179" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A179" s="10">
         <v>45527.502909039351</v>
       </c>
@@ -29092,8 +29215,14 @@
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
+      <c r="BB179" t="s">
+        <v>533</v>
+      </c>
+      <c r="BC179" t="s">
+        <v>533</v>
+      </c>
     </row>
-    <row r="180" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A180" s="10">
         <v>45533.341496898152</v>
       </c>
@@ -29237,8 +29366,16 @@
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
+      <c r="BB180">
+        <f>COUNTIFS(AW2:AW142,"&lt;31",D2:D142,D12)</f>
+        <v>21</v>
+      </c>
+      <c r="BC180">
+        <f>COUNTIFS(AW2:AW142,"&gt;=31",D2:D142,D12)</f>
+        <v>17</v>
+      </c>
     </row>
-    <row r="181" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A181" s="10">
         <v>45533.368616030093</v>
       </c>
@@ -29382,8 +29519,14 @@
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
+      <c r="BB181" t="s">
+        <v>534</v>
+      </c>
+      <c r="BC181" t="s">
+        <v>534</v>
+      </c>
     </row>
-    <row r="182" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A182" s="10">
         <v>45537.345975694443</v>
       </c>
@@ -29527,8 +29670,16 @@
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
+      <c r="BB182">
+        <f>COUNTIFS(AW143:AW341,"&lt;33",D143:D341,D12)</f>
+        <v>49</v>
+      </c>
+      <c r="BC182">
+        <f>COUNTIFS(AW143:AW341,"&gt;=33",D143:D341,D12)</f>
+        <v>37</v>
+      </c>
     </row>
-    <row r="183" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A183" s="10">
         <v>45527.559722719903</v>
       </c>
@@ -29672,8 +29823,14 @@
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
+      <c r="BB183" t="s">
+        <v>535</v>
+      </c>
+      <c r="BC183" t="s">
+        <v>535</v>
+      </c>
     </row>
-    <row r="184" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A184" s="10">
         <v>45527.560796180551</v>
       </c>
@@ -29817,8 +29974,16 @@
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
+      <c r="BB184">
+        <f>SUM(BB180,BB182)</f>
+        <v>70</v>
+      </c>
+      <c r="BC184">
+        <f>SUM(BC180,BC182)</f>
+        <v>54</v>
+      </c>
     </row>
-    <row r="185" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A185" s="10">
         <v>45527.569531238427</v>
       </c>
@@ -29962,8 +30127,11 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
+      <c r="BB185" t="s">
+        <v>536</v>
+      </c>
     </row>
-    <row r="186" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A186" s="10">
         <v>45527.68210607639</v>
       </c>
@@ -30107,8 +30275,12 @@
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
+      <c r="BB186">
+        <f>COUNTIF(D2:D341,D12)</f>
+        <v>124</v>
+      </c>
     </row>
-    <row r="187" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A187" s="10">
         <v>45533.341425243052</v>
       </c>
@@ -30253,7 +30425,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="188" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A188" s="10">
         <v>45533.342157233797</v>
       </c>
@@ -30398,7 +30570,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="189" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A189" s="10">
         <v>45517.550888703699</v>
       </c>
@@ -30543,7 +30715,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="190" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A190" s="10">
         <v>45517.559819444446</v>
       </c>
@@ -30688,7 +30860,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="191" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A191" s="10">
         <v>45527.528556319448</v>
       </c>
@@ -30833,7 +31005,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="192" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A192" s="10">
         <v>45527.552937430555</v>
       </c>

--- a/Copy of IS Observation Form 2024 (Responses).xlsx
+++ b/Copy of IS Observation Form 2024 (Responses).xlsx
@@ -15,7 +15,7 @@
     <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Form Responses 1'!$CG$1:$CG$441</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Form Responses 1'!$A$1:$AU$341</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -4130,7 +4130,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -11220,9 +11219,9 @@
   </sheetPr>
   <dimension ref="A1:CT441"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CG1" zoomScale="54" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="CW34" sqref="CW34"/>
+    <sheetView tabSelected="1" topLeftCell="AQ1" zoomScale="74" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A151" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AS164" sqref="AS164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11249,7 +11248,7 @@
     <col min="39" max="39" width="38.5703125" customWidth="1"/>
     <col min="40" max="44" width="18.85546875" customWidth="1"/>
     <col min="45" max="45" width="26" customWidth="1"/>
-    <col min="46" max="46" width="120.140625" customWidth="1"/>
+    <col min="46" max="46" width="170.140625" customWidth="1"/>
     <col min="47" max="53" width="18.85546875" customWidth="1"/>
     <col min="54" max="54" width="28" customWidth="1"/>
     <col min="55" max="55" width="26.42578125" customWidth="1"/>
@@ -74777,7 +74776,7 @@
         <v>8</v>
       </c>
       <c r="AY323">
-        <f t="shared" ref="AY323:AY359" si="66">SUM(Y323:AE323)-7</f>
+        <f t="shared" ref="AY323:AY341" si="66">SUM(Y323:AE323)-7</f>
         <v>7</v>
       </c>
       <c r="AZ323">
@@ -74797,7 +74796,7 @@
         <v>10</v>
       </c>
       <c r="BV323">
-        <f t="shared" ref="BV323:BV386" si="71">AX323*2</f>
+        <f t="shared" ref="BV323:BV341" si="71">AX323*2</f>
         <v>16</v>
       </c>
       <c r="BW323">
@@ -82311,7 +82310,7 @@
       <c r="AS441" s="24"/>
     </row>
   </sheetData>
-  <autoFilter ref="CG1:CG441"/>
+  <autoFilter ref="A1:AU341"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/Copy of IS Observation Form 2024 (Responses).xlsx
+++ b/Copy of IS Observation Form 2024 (Responses).xlsx
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4539" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4561" uniqueCount="573">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1795,6 +1795,54 @@
   </si>
   <si>
     <t>Anxiety</t>
+  </si>
+  <si>
+    <t>Loving Fam male</t>
+  </si>
+  <si>
+    <t>loving fam male</t>
+  </si>
+  <si>
+    <t>loving fam female</t>
+  </si>
+  <si>
+    <t>loving fam total</t>
+  </si>
+  <si>
+    <t>loving fam total(full)</t>
+  </si>
+  <si>
+    <t>moderate fam male</t>
+  </si>
+  <si>
+    <t>moderate fam female</t>
+  </si>
+  <si>
+    <t>moderate fam total</t>
+  </si>
+  <si>
+    <t>moderate fam total(full)</t>
+  </si>
+  <si>
+    <t>unloving fam male</t>
+  </si>
+  <si>
+    <t>unloving male</t>
+  </si>
+  <si>
+    <t>unloving female</t>
+  </si>
+  <si>
+    <t>unloving fam female</t>
+  </si>
+  <si>
+    <t>unloving fam total</t>
+  </si>
+  <si>
+    <t>unloving total</t>
+  </si>
+  <si>
+    <t>un loving fam total(full)</t>
   </si>
 </sst>
 </file>
@@ -11219,9 +11267,9 @@
   </sheetPr>
   <dimension ref="A1:CT441"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AQ1" zoomScale="74" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A151" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AS164" sqref="AS164"/>
+    <sheetView tabSelected="1" topLeftCell="BA1" zoomScale="87" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A223" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BE229" sqref="BE229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -52003,6 +52051,15 @@
         <f t="shared" si="41"/>
         <v>8</v>
       </c>
+      <c r="BD205" t="s">
+        <v>5</v>
+      </c>
+      <c r="BE205" t="s">
+        <v>557</v>
+      </c>
+      <c r="BF205" t="s">
+        <v>558</v>
+      </c>
       <c r="BH205">
         <f t="shared" si="42"/>
         <v>24</v>
@@ -52196,6 +52253,14 @@
         <f t="shared" si="41"/>
         <v>1</v>
       </c>
+      <c r="BE206">
+        <f>COUNTIFS(AW2:AW142,"&lt;31",F2:F142,F2)</f>
+        <v>54</v>
+      </c>
+      <c r="BF206">
+        <f>COUNTIFS(AW2:AW142,"&gt;=31",F2:F142,F2)</f>
+        <v>40</v>
+      </c>
       <c r="BH206">
         <f t="shared" si="42"/>
         <v>18</v>
@@ -52389,6 +52454,12 @@
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
+      <c r="BE207" t="s">
+        <v>559</v>
+      </c>
+      <c r="BF207" t="s">
+        <v>559</v>
+      </c>
       <c r="BH207">
         <f t="shared" si="42"/>
         <v>0</v>
@@ -52582,6 +52653,14 @@
         <f t="shared" si="41"/>
         <v>7</v>
       </c>
+      <c r="BE208">
+        <f>COUNTIFS(AW143:AW341,"&lt;33",F143:F341,F2)</f>
+        <v>76</v>
+      </c>
+      <c r="BF208">
+        <f>COUNTIFS(AW143:AW341,"&gt;=33",F143:F341,F2)</f>
+        <v>52</v>
+      </c>
       <c r="BH208">
         <f t="shared" si="42"/>
         <v>14</v>
@@ -52775,6 +52854,12 @@
         <f t="shared" si="41"/>
         <v>10</v>
       </c>
+      <c r="BE209" t="s">
+        <v>560</v>
+      </c>
+      <c r="BF209" t="s">
+        <v>560</v>
+      </c>
       <c r="BH209">
         <f t="shared" si="42"/>
         <v>20</v>
@@ -52968,6 +53053,14 @@
         <f t="shared" si="41"/>
         <v>8</v>
       </c>
+      <c r="BE210">
+        <f>SUM(BE206,BE208)</f>
+        <v>130</v>
+      </c>
+      <c r="BF210">
+        <f>SUM(BF206,BF208)</f>
+        <v>92</v>
+      </c>
       <c r="BH210">
         <f t="shared" si="42"/>
         <v>32</v>
@@ -53161,6 +53254,9 @@
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
+      <c r="BE211" t="s">
+        <v>561</v>
+      </c>
       <c r="BH211">
         <f t="shared" si="42"/>
         <v>8</v>
@@ -53354,6 +53450,10 @@
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
+      <c r="BE212">
+        <f>COUNTIF(F2:F341,F2)</f>
+        <v>222</v>
+      </c>
       <c r="BH212">
         <f t="shared" si="42"/>
         <v>18</v>
@@ -53547,6 +53647,12 @@
         <f t="shared" si="41"/>
         <v>13</v>
       </c>
+      <c r="BE213" t="s">
+        <v>562</v>
+      </c>
+      <c r="BF213" t="s">
+        <v>562</v>
+      </c>
       <c r="BH213">
         <f t="shared" si="42"/>
         <v>28</v>
@@ -53740,6 +53846,14 @@
         <f t="shared" si="41"/>
         <v>16</v>
       </c>
+      <c r="BE214">
+        <f>COUNTIFS(AW2:AW142,"&lt;31",F2:F142,F3)</f>
+        <v>23</v>
+      </c>
+      <c r="BF214">
+        <f>COUNTIFS(AW2:AW142,"&gt;=31",F2:F142,F3)</f>
+        <v>20</v>
+      </c>
       <c r="BH214">
         <f t="shared" si="42"/>
         <v>30</v>
@@ -53933,6 +54047,12 @@
         <f t="shared" si="41"/>
         <v>8</v>
       </c>
+      <c r="BE215" t="s">
+        <v>563</v>
+      </c>
+      <c r="BF215" t="s">
+        <v>563</v>
+      </c>
       <c r="BH215">
         <f t="shared" si="42"/>
         <v>18</v>
@@ -54126,6 +54246,14 @@
         <f t="shared" si="41"/>
         <v>1</v>
       </c>
+      <c r="BE216">
+        <f>COUNTIFS(AW143:AW341,"&lt;33",F143:F341,F3)</f>
+        <v>37</v>
+      </c>
+      <c r="BF216">
+        <f>COUNTIFS(AW143:AW341,"&gt;=33",F143:F341,F3)</f>
+        <v>30</v>
+      </c>
       <c r="BH216">
         <f t="shared" si="42"/>
         <v>4</v>
@@ -54319,6 +54447,12 @@
         <f t="shared" si="41"/>
         <v>5</v>
       </c>
+      <c r="BE217" t="s">
+        <v>564</v>
+      </c>
+      <c r="BF217" t="s">
+        <v>564</v>
+      </c>
       <c r="BH217">
         <f t="shared" si="42"/>
         <v>20</v>
@@ -54512,6 +54646,14 @@
         <f t="shared" si="41"/>
         <v>3</v>
       </c>
+      <c r="BE218">
+        <f>SUM(BE214,BE216)</f>
+        <v>60</v>
+      </c>
+      <c r="BF218">
+        <f>SUM(BF214,BF216)</f>
+        <v>50</v>
+      </c>
       <c r="BH218">
         <f t="shared" si="42"/>
         <v>24</v>
@@ -54705,6 +54847,9 @@
         <f t="shared" si="41"/>
         <v>1</v>
       </c>
+      <c r="BE219" t="s">
+        <v>565</v>
+      </c>
       <c r="BH219">
         <f t="shared" si="42"/>
         <v>8</v>
@@ -54898,6 +55043,10 @@
         <f t="shared" si="41"/>
         <v>4</v>
       </c>
+      <c r="BE220">
+        <f>COUNTIF(F2:F341,F3)</f>
+        <v>110</v>
+      </c>
       <c r="BH220">
         <f t="shared" si="42"/>
         <v>10</v>
@@ -55091,6 +55240,12 @@
         <f t="shared" si="41"/>
         <v>1</v>
       </c>
+      <c r="BE221" t="s">
+        <v>566</v>
+      </c>
+      <c r="BF221" t="s">
+        <v>567</v>
+      </c>
       <c r="BH221">
         <f t="shared" si="42"/>
         <v>16</v>
@@ -55284,6 +55439,14 @@
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
+      <c r="BE222">
+        <f>COUNTIFS(AW2:AW142,"&lt;31",F2:F142,F19)</f>
+        <v>1</v>
+      </c>
+      <c r="BF222">
+        <f>COUNTIFS(AW2:AW142,"&gt;=31",F2:F142,F19)</f>
+        <v>3</v>
+      </c>
       <c r="BH222">
         <f t="shared" si="42"/>
         <v>10</v>
@@ -55477,6 +55640,12 @@
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
+      <c r="BE223" t="s">
+        <v>569</v>
+      </c>
+      <c r="BF223" t="s">
+        <v>568</v>
+      </c>
       <c r="BH223">
         <f t="shared" si="42"/>
         <v>12</v>
@@ -55670,6 +55839,14 @@
         <f t="shared" si="41"/>
         <v>9</v>
       </c>
+      <c r="BE224">
+        <f>COUNTIFS(AW143:AW341,"&lt;33",F143:F341,F19)</f>
+        <v>0</v>
+      </c>
+      <c r="BF224">
+        <f>COUNTIFS(AW143:AW341,"&gt;=33",F143:F341,F19)</f>
+        <v>4</v>
+      </c>
       <c r="BH224">
         <f t="shared" si="42"/>
         <v>16</v>
@@ -55863,6 +56040,12 @@
         <f t="shared" si="41"/>
         <v>14</v>
       </c>
+      <c r="BE225" t="s">
+        <v>570</v>
+      </c>
+      <c r="BF225" t="s">
+        <v>571</v>
+      </c>
       <c r="BH225">
         <f t="shared" si="42"/>
         <v>26</v>
@@ -56056,6 +56239,14 @@
         <f t="shared" si="41"/>
         <v>7</v>
       </c>
+      <c r="BE226">
+        <f>SUM(BE222,BE224)</f>
+        <v>1</v>
+      </c>
+      <c r="BF226">
+        <f>SUM(BF222,BF224)</f>
+        <v>7</v>
+      </c>
       <c r="BH226">
         <f t="shared" si="42"/>
         <v>14</v>
@@ -56249,6 +56440,9 @@
         <f t="shared" si="41"/>
         <v>2</v>
       </c>
+      <c r="BE227" t="s">
+        <v>572</v>
+      </c>
       <c r="BH227">
         <f t="shared" si="42"/>
         <v>16</v>
@@ -56441,6 +56635,10 @@
       <c r="AZ228">
         <f t="shared" si="41"/>
         <v>0</v>
+      </c>
+      <c r="BE228">
+        <f>COUNTIF(F2:F341,F19)</f>
+        <v>8</v>
       </c>
       <c r="BH228">
         <f t="shared" si="42"/>
